--- a/news_data/2018_05.xlsx
+++ b/news_data/2018_05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,52 +22,151 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 외국인 관광객 자전거 투어 상품 첫 선</t>
+  </si>
+  <si>
+    <t>제주도 여행, 서귀포 중문 관광과 흑돼지 맛집의 콜라보</t>
+  </si>
+  <si>
+    <t>제주도 내국인 관광객 증가율 뚝↓...이유는?</t>
+  </si>
+  <si>
+    <t>6월 제주도 여행 10선...놓치면 후회할 관광명소는?</t>
+  </si>
+  <si>
+    <t>제주도, 베트남 5대 여행사와 관광객 유치 협약</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문 관광과 흑돼지 맛집에서 즐기는 식도락</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 '돈이랑', 여름철 맛보는 흑돼지 연탄구이</t>
+  </si>
+  <si>
+    <t>제주도, 관광안내사 역량강화교육 수강생 모집</t>
+  </si>
+  <si>
+    <t>[Oh!쎈리뷰] '살림남2' 민우혁, 할머니에 제주도 효도관광 "첫 비행"</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 융자금 상환 1년 유예</t>
+  </si>
+  <si>
+    <t>제주도, 일본 골프 관광객 유치 시동</t>
+  </si>
+  <si>
+    <t>[이슈+] 中 '제주도행 단체관광' 상품 등장…사드보복 해제 신호?</t>
+  </si>
+  <si>
+    <t>제주도, '어업·관광·레저' 다기능 어항 개발 추진</t>
+  </si>
+  <si>
+    <t>제주도관광협회, "칭찬합시다" 이달의 Best 관광인...장수영 씨 선정</t>
+  </si>
+  <si>
+    <t>"제주도에도 관광 2층버스가 있다면서?"</t>
+  </si>
+  <si>
+    <t>제주도관광협회 4월 베스트 관광인에 장수영 부장</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 울산지역 축제 연계 제주관광 홍보마케팅</t>
+  </si>
+  <si>
+    <t>중문관광단지 맛집, 색달식당 '오늘 아침 잡은 제주도 생갈치입니다'</t>
+  </si>
+  <si>
+    <t>예산군, 재가어르신과 행복플러스 제주도 효도관광 진행</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문 관광과 흑돼지 맛집 '돈가득'에서 즐기는 싱그러운 봄</t>
+  </si>
+  <si>
     <t>제주도, 관광진흥기금 융자금 상환 1년 더 ‘유예’</t>
   </si>
   <si>
     <t>어업·관광·레저…제주도, 다기능 어항개발 추진</t>
   </si>
   <si>
-    <t>중문관광단지 맛집, 색달식당 '오늘 아침 잡은 제주도 생갈치입니다'</t>
-  </si>
-  <si>
     <t>제주도, 제주관광진흥기금 융자금 상환 1년 유예</t>
   </si>
   <si>
-    <t>예산군, 재가어르신과 행복플러스 제주도 효도관광 진행</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문 관광과 흑돼지 맛집 '돈가득'에서 즐기는 싱그러운 봄</t>
-  </si>
-  <si>
     <t>예산군노인종합복지관, 제주도 '효' 관광나들이</t>
   </si>
   <si>
     <t>제주도, 홍콩 관광객 유치 제주관광설명회 개최</t>
   </si>
   <si>
-    <t>제주도, 관광진흥기금 융자금 상환 1년 더 ‘유예’ &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:21 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주 강한 비 ‘시간당 20mm’ 내외…기온 큰 폭으로 뚝↓ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 관광진흥기금 융자금 상환 1년 더 ‘유예’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 제주도, 관광진흥기금 융자금 상환 1년 더 ‘유예’ 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2018.05.04 10:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 작년 매출액 3개년 평균 매출액보다 감소한 업체에 대해 제한적 지원…5월31일까지 접수제주도가 관광시장 위축으로 어려움을 겪고 있는 지역 관광사업체의 경영 안정화를 위해 관광진흥기금 융자금 상환을 1년 유예하기로 했다.제주도는 이 같은 내용을 도청 홈페이지(http://www.jeju.go.kr/news/news/law/jeju.htm)를 통해 공고했다고 4일 밝혔다.한․중 관계가 호전되는 분위기가 조성되고는 있지만 지난해 3월 이후 ‘방한 금지령’이라는 유래 없는 예외적인 상황임을 감안해 올해까지만 융자금 상환을 유예키로 한 것이다.이번 상환 유예는 실질적으로 경영에 어려움을 겪고 있는 관광사업체에 지원될 수 있도록 유예대상을 제한적으로 지원할 계획이다.지원대상은 거치기간 종료 후 원금상환 중이거나 거치기간이 1년미만 남은 업체 중 2017년도 매출액이 3개년(2014~2016년) 평균 매출액보다 감소한 업체로 제한했다. 공고일 기준 거치기간이 1년이상 남은 경우는 지원대상에서 제외한다.신청·접수기간은 5월 8일부터 5월 31일까지 17일간이다. 유예기간은 최대 1년이다.융자자가 융자취급 금융기관에 신청하면 금융기관에서는 적격성 심사를 하게 되고, 심사결과를 5월31일까지 제주도(관광정책과)로 통보하면, 제주도는 6월15일까지 최종 유예 결정을 하게 된다.현학수 관광정책과장은 “이번 융자금 상환유예 지원으로 지역 관광사업체가 어려움을 극복할 수 있는 기회가 되기를 바란다”며 “앞으로도 도민의 실질적 수혜 확대를 위한 기금운용 정책을 지속적으로 추진해 나갈 방침”이라고 말했다.제주도는 지난해 ‘사드’ 피해지원을 위해 230개소 307억원의 특별융자와 291건 2280억원에 대한 융자금 상환을 유예한 바 있다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>어업·관광·레저…제주도, 다기능 어항개발 추진 오피니언 사설 데스크칼럼 전문가칼럼 기자수첩 인터뷰 시사만화 폴리로그 여의도는 정책분석 이슈&amp;논평 # E.FACT 경제명암 재계이슈 인사이드 위기경영 富동산 부동산뉴스 부촌명사 부자부동산 상권TMI 맛있는 부동산 보.증.금 금융동향 금융이슈 제테크 SKY기획 이슈 포커스 진단ㆍ분석 스팟이슈 나라밖 글로벌클라스 포토뉴스 부의지도 우리동네명사들 인물별 보기 그래프 보기 서울 23.0º 미세먼지   보통 수원 24.4º 미세먼지   좋음 춘천 18.6º 미세먼지   좋음 강릉 21.4º 미세먼지   좋음 청주 22.3º 미세먼지   보통 대전 24.4º 미세먼지   좋음 전주 27.1º 미세먼지   좋음 광주 27.2º 미세먼지   좋음 목포 24.5º 미세먼지   보통 여수 25.9º 미세먼지   보통 안동 23.5º 미세먼지   좋음 대구 27.2º 미세먼지   좋음 울산 25.7º 미세먼지   좋음 부산 24.3º 미세먼지   좋음 제주 24.7º 미세먼지   좋음 Update : 2022-10-04 10:25 최신기사 오피니언 폴리로그 # E.FACT 富동산 보.증.금 SKY기획 나라밖 전국 포토뉴스 부의 지도 신문PDF 로그인 오피니언 사설 데스크칼럼 전문가칼럼 기자수첩 인터뷰 시사만화 폴리로그 여의도는 정책분석 이슈&amp;논평 # E.FACT 경제명암 재계이슈 인사이드 위기경영 富동산 부동산뉴스 부촌명사 부자부동산 상권TMI 맛있는 부동산 보.증.금 금융동향 금융이슈 제테크 SKY기획 이슈 포커스 진단ㆍ분석 스팟이슈 나라밖 글로벌클라스 포토뉴스 정치 경제 사회 문화 연예 일반 부의지도 우리동네명사들 인물별 보기 그래프 보기 정치 국회ㆍ정당 행정ㆍ자치 국방ㆍ군사 경영 경영ㆍCEO 재벌ㆍ대기업 중견ㆍ중기ㆍ벤쳐 금융 금융일반 은행 증권 보험 제2금융 부동산 일반 건물 토지 아파트 경제정책 정부ㆍ정책 시정ㆍ구정 경제사건 소비자 거시경제 IT과학 ITㆍ인터넷 연구ㆍ개발 과학 게임 국제 국제일반 국제경제 국제사회 국제정치 글로벌클라스 사회 사건ㆍ사고 사회ㆍ노동 복지ㆍ여성 교육ㆍ취업 주거ㆍ라이프 산업 전기ㆍ전자ㆍ통신 건설ㆍ자동차 조선ㆍ해운 유통ㆍ물류ㆍ광고 제철ㆍ기계ㆍ에너지 화학ㆍ섬유 제약ㆍ바이오ㆍ의료 식품ㆍ요식ㆍ유흥 여행ㆍ항공 광고ㆍ미디어 문화 문화산업 반려동물 미디어 책ㆍ출판 전시ㆍ공연 스포츠 스포츠산업 스포츠일반 야구 축구 연예 연예산업 연예일반 영화 TVㆍ방송 전국 보도자료 신문지면PDF 구독신청 기사제보 주소 : 서울시 강남구 도산대로 541(청담동) 세신빌딩 9층 | 전화 : 02-522-6595~6 | 팩스 : 02-522-6597 인터넷신문 등록번호 : 서울시 아01703, 등록일 : 2011년 7월 15일, 대표이사·발행인·편집인: 조정진 copyrightⓒ2011, All rights reserved. Contact : skyedaily@skyedaily.com | 청소년보호책임자 : 박선옥 회사소개 | 조직도 | 회사연혁 | 윤리강령 | 광고안내 | 기사제보 | 독자의견 | 법적고지 | 개인정보취급방침 | 청소년보호정책 | 고충처리 이 시간 주요기사 전통 앞세워 스트레스 주는 제사는 가라… 제사에 부는 ‘현대화 바람’ 달라진 결혼 문화… 집안 중심 결혼서 신랑·신부가 주인공으로 6·25 참전 콜롬비아 구순 노병, 70년 만에 한국 땅 밟는다 금천구, 2023년 생활임금 3.6% 인상 울산 쇠퇴 극복 대안도 없이… ‘부울경’ 연합 무작정 탈퇴 국내 복귀기업 66% ‘무늬만 유턴’… 돈 받아도 사업 재개 ‘차일피일’ ‘줄줄이 횡령사고’ 금융권, 통제기능 강화하고 내부통제 역량 높인다 국토부 산하 공공기관 2천명 감축… “대부분 무기직, 보여주기식 혁신” 벤츠 모는 LH 임대주택 거주민… 부적격 입주자 4만명 육박 ‘K-방산’, 지원제도 보완 통해 ‘200억달러 시대’ 열어야 국내 100대기업 사내유보금 1천조 돌파… 10년 간 395조원 증가 인터넷은행, 장애인 고용률 0%대… 4대 시중은행도 1% 인도네시아 축구장 사망자 최소 130명… 경찰 과잉진압 논란 尹정부 첫 국감 4일 막 올라… ‘비속어 논란’ 등 전면전 예고 나토 “러 핵사용 시 심각한 후과” 강력 경고 뉴스 &gt; 시정·구정 어업·관광·레저…제주도, 다기능 어항개발 추진 73억 들여 어선 감척·기후 변화·FTA 대응…주민 소득 향상 기대 남승진 기자 기자페이지 + 입력 2018-05-06 15:09:16 ▲ 제주도 지방어항 개발사업 위치도 [사진=제주도] 제주도가 어업·관광·레저 동시 활성화를 위해 어항 개발사업에 착수한다. 제주도는 어선 감척·기후 변화·FTA 등 수산업 여건 변화에 대응키 위해 올해 총 73억2500만원을 들여 도내 11개 지방에 개발사업을 이달부터 본격 추진한다고 6일 밝혔다. 먼저 도내 고산항·신창항·하귀1리항·조천항·세화항·우도항·가파항·사계항·태흥2리항·표선항·신천항 등 11개 어항에 대해 방파제·물양장·항내 준설 등 어항 기본시설과 배후부지 리모델링 및 편의시설 확보 등 어항 기능보강사업에 나선다. 특히 신창항·고산항·세화항·우도항·태흥2리항 등의 경우 항내 퇴적물과 암반을 제거하는 준설사업과 편의시설 확충 사업 등으로 어선 안전 수용과 효율적인 어로 활동·관광객 수송·낚시관광 등의 활성화가 기대된다. 또한 기후변화에 따른 해수면 상승과 태풍으로 어항거점시설에 대한 침수피해가 예상되는 하귀1리항·사계항·가파항·조천항·표선항·신천항 등 6개 어항에 대해 방파제 시설 보수·보강을 실시함으로써 월파로 인한 어선 정박과 어항 피해를 예방키로 했다. 김창선 제주도 해양수산국장은 “지방어항을 관광지역과 연계해 개발하고 어촌관광 화성화 등 경제적 파급 효과가 크다고 예상되는 지역을 어업·관광·레저 활동과 연계해 개발함으로써 지역경제 활성화와 실질적인 주민 소득 향상에 기여할 수 있도록 하겠다”고 밝혔다. [남승진 기자 / 행동이 빠른 신문 ⓒ스카이데일리] 남승진 기자 nnssjj123@skyedaily.com 기자페이지 + 시정·구정 많이 본 기사 서초구, 세금고민 세무소와 함께 해결해요서울 서초구는 급변하는 조세 정책 환경 속에 어려움을 겪는 구민에게 도움을 주는 ‘서초! 찾아가는 세무설명회’ 를 개최한다고...											2022-10-02  08:38:08 박형준 시장, 중남미서 2030부산세계박람회 유치 활동박형준 부산시장이 미국 마이애미, 파나마에서 2030부산세계박람회(부산박람회) 유치 홍보활동을 성공적으로 마치고 28일부터 유...											2022-10-03  09:32:24 이 기사에 대해 어떻게 생각하시나요? 추천해요 0 좋아요 0 감동이에요 0 화나요 0 슬퍼요 0 등록 많이 읽은 기사 ‘국군의 날 기념식’ 사열하는 윤석열 대통령 서울 양천구, 불법광고물 소탕작전 나섰다 과천시, 11일부터 코로나19 백신 추가접종 무섭게 오르는 물가, 자취생에겐 ‘생존의 문제’ 양천구, 부동산 불법중개행위 뿌리뽑는다 문재인식 사회주의 문화는 언제나 끝이 나려나 당진향교, 추기석전 봉행 오산시, 독산성 문화제 10월1, 2일 열려 도시가스 요금 2.7원 오른다… “에너지값 인상 때문” ‘학군장교(ROTC) 최초 합참의장’ 김진호 대장 별세 오늘자 스카이데일리 구독신청 코프로모션 오늘의 운세 연재소설 ‘초대받은 여자’ 기사제보 우리동네 부자명사 ‘팔방미인’ 양요섭, ‘하이라이트 운동회’서 팬들과 달린다 댓글이 多 [단독] “사드 ‘3不1限’, 송영길·왕이 2017년 뒷거래 의혹” 독자댓글 재무구조 개선 노력에 무엇을 했는지 궁금합니다. 문제... mbc 방송폐지 문제인간찹은 북한으로보내라 항상 좋... 개소리 그만해라 스카이데일리 SNS 친구추가해주세요 구독해주세요 팔로우하세요 주요 섹션 기사 폴리로그 불 붙은 성남FC 수사… 與 “이재명이 몸통” 野 “수사쇼” # E.FACT 기준금리 0.25%p 인상 시 대기업 절반이 ‘취약기업’ 된다 富동산 LH, 4일부터 3차 청년·신혼부부 매입임대주택 접수 시작 보.증.금 ‘대출금리 8% 시대’ 임박… ‘영끌족’ 애간장 탄다 나라밖 나토 “러 핵사용 시 심각한 후과” 강력 경고 전국 ‘중앙시장 달빛 먹거리 축제’ 7,8일 개최 오피니언 사설 데스크칼럼 전문가칼럼 기자수첩 인터뷰 시사만화 폴리로그 여의도는 정책분석 이슈&amp;논평 # E.FACT 경제명암 재계이슈 인사이드 위기경영 富동산 부동산뉴스 부촌명사 부자부동산 상권TMI 맛있는 부동산 보.증.금 금융동향 금융이슈 제테크 SKY기획 이슈 포커스 진단ㆍ분석 스팟이슈 나라밖 글로벌클라스 포토뉴스 정치 경제 사회 문화 연예 일반 부의지도 우리동네명사들 인물별 보기 그래프 보기 정치 국회ㆍ정당 행정ㆍ자치 국방ㆍ군사 경영 경영ㆍCEO 재벌ㆍ대기업 중견ㆍ중기ㆍ벤쳐 금융 금융일반 은행 증권 보험 제2금융 부동산 일반 건물 토지 아파트 경제정책 정부ㆍ정책 시정ㆍ구정 경제사건 소비자 거시경제 IT과학 ITㆍ인터넷 연구ㆍ개발 과학 게임 국제 국제일반 국제경제 국제사회 국제정치 글로벌클라스 사회 사건ㆍ사고 사회ㆍ노동 복지ㆍ여성 교육ㆍ취업 주거ㆍ라이프 산업 전기ㆍ전자ㆍ통신 건설ㆍ자동차 조선ㆍ해운 유통ㆍ물류ㆍ광고 제철ㆍ기계ㆍ에너지 화학ㆍ섬유 제약ㆍ바이오ㆍ의료 식품ㆍ요식ㆍ유흥 여행ㆍ항공 광고ㆍ미디어 문화 문화산업 반려동물 미디어 책ㆍ출판 전시ㆍ공연 스포츠 스포츠산업 스포츠일반 야구 축구 연예 연예산업 연예일반 영화 TVㆍ방송 전국 보도자료 신문지면PDF 구독신청 기사제보 주소 : 서울시 강남구 도산대로 541(청담동) 세신빌딩 9층 | 전화 : 02-522-6595~6 | 팩스 : 02-522-6597 인터넷신문 등록번호 : 서울시 아01703, 등록일 : 2011년 7월 15일, 대표이사·발행인·편집인: 조정진 copyrightⓒ2011, All rights reserved. Contact : skyedaily@skyedaily.com | 청소년보호책임자 : 박선옥 회사소개 | 조직도 | 회사연혁 | 윤리강령 | 광고안내 | 기사제보 | 독자의견 | 법적고지 | 개인정보취급방침 | 청소년보호정책 | 고충처리 이 시간 주요기사 전통 앞세워 스트레스 주는 제사는 가라… 제사에 부는 ‘현대화 바람’ 달라진 결혼 문화… 집안 중심 결혼서 신랑·신부가 주인공으로 6·25 참전 콜롬비아 구순 노병, 70년 만에 한국 땅 밟는다 금천구, 2023년 생활임금 3.6% 인상 울산 쇠퇴 극복 대안도 없이… ‘부울경’ 연합 무작정 탈퇴 국내 복귀기업 66% ‘무늬만 유턴’… 돈 받아도 사업 재개 ‘차일피일’ ‘줄줄이 횡령사고’ 금융권, 통제기능 강화하고 내부통제 역량 높인다 국토부 산하 공공기관 2천명 감축… “대부분 무기직, 보여주기식 혁신” 벤츠 모는 LH 임대주택 거주민… 부적격 입주자 4만명 육박 ‘K-방산’, 지원제도 보완 통해 ‘200억달러 시대’ 열어야 국내 100대기업 사내유보금 1천조 돌파… 10년 간 395조원 증가 인터넷은행, 장애인 고용률 0%대… 4대 시중은행도 1% 인도네시아 축구장 사망자 최소 130명… 경찰 과잉진압 논란 尹정부 첫 국감 4일 막 올라… ‘비속어 논란’ 등 전면전 예고 나토 “러 핵사용 시 심각한 후과” 강력 경고</t>
-  </si>
-  <si>
-    <t>중문관광단지 맛집, 색달식당 ‘오늘 아침 잡은 제주도 생갈치입니다' &lt; 뉴스 투데이 &lt; 라이프 &lt; 라운지 &lt; 기사본문 - 대한금융신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 신문사소개 구독신청 로그인 회원가입 전체메뉴 버튼 최종편집 2022-10-04 10:25 (화) 기사검색 검색 최신뉴스 은행권, 장애인 의무 채용 '나몰라라' 기보, 투자연계보증 확대하여 벤처투자시장 활성화에 기여 베스텔라랩, 4차 산업혁명 Power Korea 대전 우수기업 행정안전부 장관상 수상 KB증권, 연금계좌 ETF 매수 이벤트 실시 [인사] ABL생명 [기자수첩] 금융권 회장님 변호사비는 어디서 왔을까, 다시 또 묻는다 지주 회장들, 회삿돈 써 변호사비 대납 의혹 한도까지 빚낸 한화손보…또 ‘채권 찍고, 사옥 팔고’ 모든 것 다 내주는 나무 ‘너도밤나무’ [응답하라, 우리술 268] 중양절처럼 양기 많은 날 ‘단오’ 세시주 본문영역 이전 기사보기 다음 기사보기 중문관광단지 맛집, 색달식당 ‘오늘 아침 잡은 제주도 생갈치입니다' SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 라운지 라이프 뉴스 투데이 중문관광단지 맛집, 색달식당 ‘오늘 아침 잡은 제주도 생갈치입니다' 입력 2018.05.17 17:21 대한금융 온라인팀 jshily@kbanker.co.kr 다른기사 보기 SNS 기사보내기 SNS 기사보내기 다른 공유 찾기 바로가기 글씨크기조절 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 URL복사 닫기 중문관광단지 근처에 위치한 색달식당이 제주도를 찾는 관광객들 사이에서 화제다. 이는 맛과 더불어 비쥬얼과 편리함까지 잡았기 때문이다.현재 색달식당은 중문관광단지 내 픽업 서비스를 진행하고 있다. 또한 당일 아침에 잡은 제주도 생갈치를 사용함으로써 중문관광단지를 찾는 관광객들과 더불어 제주도에 거주하는 주민들에게까지도 맛집으로 불리고 있다.색달식당은 문어통갈치 스폐셜이 유명하다. 우선 문어통갈치조림은 딱새우, 전복, 제주도산 돌문어 등을 갈치와 함께 넣고 끓인 요리다. 스폐셜은 문어통갈치조림을 비롯해 고등어구이, 성게미역국, 돌솥밥 등으로 구성된 코스 요리다. 문어가 통으로 들어가 바다 내음을 물씬 느낄 수 있을뿐더러 특수 제작한 냄비에 담겨있어 싱그러운 바다 느낌을 입 속에서 느낄 수 있다고 색달식당을 찾은 한 관광객은 말했다.또 다른 관광객은 “평소 갈치를 좋아하는데, 제주도 은갈치는 중문관광단지에 와서 처음 먹어봤다”며 “갈치의 은빛과 문어의 분홍빛의 조화가 식욕을 자극한다”고 평했다.색달식당 주인은 “문어통갈치 스폐셜은 밑반찬으로 고등어구이와 성게미역국도 준비되는데, 어느게 메인요리인지 모를 정도로 전부 맛이 뛰어나다”고 자부했다. 이어 그는 “매일 아침에 잡은 갈치와 싱싱한 재료로 요리하기 때문에 맛은 물론 건강까지 잡았다”며 “중문관광단지에 오셨으면 색달식당을 꼭 찾아달라”고 말했다.​ 저작권자 © 대한금융신문 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 많이 본 기사 최근 한달 1 한달새 2조 팔린 ‘4% 저축보험’, 은행만 노났다 2 잇단 저축은행 금융사고…‘내 돈 괜찮나’ 불안감 증폭 3 생보사, 공시이율 ‘찔끔’ 대출금리 ‘왕창’ 올렸다 4 증시 폭락에 증안펀드 만지작…“근본적 대책 아냐” 5 [ESG조직문화이야기] 내 마음의 H.E.R.O.깨우기 6 금리 고공행진에 ‘신탁형 ISA’ 들썩 7 [응답하라, 우리술 268] 중양절처럼 양기 많은 날 ‘단오’ 세시주 8 미얀마 쓴맛 본 우리카드, ‘절치부심’ 인니 진출기 9 기보, 한수원과 함께 원전·탄소중립기업 혁신지원에 앞장서 10 증권사 앱 잦은 먹통…거래수수료는 두둑 1 ‘금융투자세 2년 유예’ 국회 문턱 넘을까 2 삼성화재 ‘위풍댕댕’, 3일만에 메리츠화재 판매량 넘었다 3 뒤늦게 드러난 리치앤코의 역린…MG손보 투자금 손상처리 4 환율 1400원 시나리오…한화생명 '웃고' 삼성생명 '울고' 5 금리 1% 상승 가정했더니…‘자본잠식’ 보험사 속출 6 롯데카드 매각 부진?…이유 있는 M&amp;A 전략 7 [국감 예고편] 증권가 ‘공매도‧사모펀드‧불법대출’로 긴장 8 [허점투성이 1200% 룰] ①보험사-GA의 밀월 “시책 900% 쏩니다” 9 '전속' 빗장 푼 한화생명 GA, 설계사 반년새 800명 ↑ 10 하나카드, 롯데카드 합병으로 위기 돌파하나 대한금융DB [대한금융DB] 국내 진출한 중국계 은행 수익성 추이 [대한금융DB] 2022년 상반기 4대 은행 외화자산 현황 [대한금융DB] 2022년 8월 자동차보험 손해율 라운지의 최신 기사 베스텔라랩, 4차 산업혁명 Power Korea 대전 우수기업 행정안전부 장관상 수상 모든 것 다 내주는 나무 ‘너도밤나무’ [응답하라, 우리술 268] 중양절처럼 양기 많은 날 ‘단오’ 세시주 낙성벤처창업센터, 창업기업 대상 ‘2022 데모데이’ 진행 프레드, 최초의 메종 전시에 국내 앰버서더 장원영 참석 '애드비드' 검색광고 자동 입찰 프로그램 파워콘텐츠 기능 추가를 알려 하단영역 하단메뉴 신문사소개 고객센터 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 매체정보 서울특별시 영등포구 신길로 220 양우빌딩 202호 대표전화 : 02-783-2583 팩스 : 02-783-2586 청소년보호책임자 : 조성준 법인명 : (주)일간금융 제호 : 대한금융신문 등록번호 : 서울 아 03062 등록일 : 2014-03-24 발행일 : 1995-10-17 발행·편집인 : 조성준 대한금융신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 대한금융신문. All rights reserved. mail to webmaster@kbanker.co.kr 위로 전체메뉴 전체기사 정책 금융 전체 은행 증권 보험 2금융 카드 부동산 금융 100세 금융 해외금융 핀테크·IT 오피니언 전체 기고 기자수첩 금융인 대한금융DB 전체 은행 증권 보험 2금융 카드 자동차보험 라운지 전체 문화탐방 라이프 인사동정 전체 인사 부고 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 제주관광진흥기금 융자금 상환 1년 유예 &lt; 실시간뉴스 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 10:03 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 제주관광진흥기금 융자금 상환 1년 유예 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 실시간뉴스 제주도, 제주관광진흥기금 융자금 상환 1년 유예 기자명 김종광 기자 입력 2018.05.04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 8일부터 오는 31일까지 접수…유예기간 최대 1년 제주특별자치도는 관광시장 위축으로 어려움을 겪고 있는 지역 관광사업체의 경영 안정화를 위해 융자금 상환을 1년간 유예한다고 4일 밝혔다.지원대상은 거치기간 종료 후 원금상환 중이거나 거치기간이 1년 미만 남은 업체 가운데 지난해 매출액이 3개년(2014~2016년) 평균 매출액보다 감소한 업체이다. 단 공고일 기준 거치기간이 1년 이상 남은 경우는 지원대상에서 제외된다.신청은 8일부터 오는 31일까지 17일간이며, 유예기간은 최대 1년이다. 융자가 융자취급 금융기관에 신청하면 금융기관에서는 해당 신청 건에 대한 적격성 심사를 거쳐 다음 달 15일까지 최종 유예 결정을 하게 된다.제주도 관계자는 “한·중 관계 호전 분위기로 관광 재개의 긍정적 요인은 있으나 실질적인 시기는 불확실하며, 지난해 3월 이후 전면적 관광 봉쇄라는 유래 없는 예외적인 상황임을 감안해 올해까지만 융자금 상황을 유예키로 했다”고 설명했다. 김종광 기자 mystic89@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 도내 미취업청년 8365명에 42억원 재난지원금 지급 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 2021년 제주관광수입 6조3402억 원 추계 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 코로나 빗장 풀리자 일본으로…제주 관광업계 ‘전전긍긍’ 포토뉴스 도내 미취업청년 8365명에 42억원 재난지원금 지급 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 2021년 제주관광수입 6조3402억 원 추계 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>예산군, 재가어르신과 행복플러스 제주도 효도관광 진행 즐겨찾기추가 | 中文| 日文| English| 기사제보| 자본시장 산업 부동산 중기벤처 정치사회 오피니언 아하!그렇군요 지역 AI 뉴스룸 금융 | 증권 | 재테크 | 경제 | 일반 | 전체 | 자동차/운송 | 자동차소식 | 중화학 | 전자통신 | 인터넷 | 생활 | 건강 | 교육 | 일반 | 전체 | 정책 | 분양 | 재테크 | 기업 | 일반 | 전체 | 기업탐방 | 컨택센터 | 업계교육소식 | 협단체뉴스 | 중기벤처일반 | 전체 | 정치 | 사회 | 인사/부음/동정 | 전체 | 기자수첩 | 칼럼 | 기고 | 전체 | 기업심층해부 | 여의도25시 | 탐사보도 | 아하!그렇군요 | 생활경제 해피포인트 | 인사이드컷 | 노병우의 카수다 | 전체 | 정치 | 사회 | 경제 | 문화 | 칼럼기자수첩 | 엔터테인먼트 | 포토뉴스 | 공지 | 전체 | 글자크기 예산군, 재가어르신과 행복플러스 제주도 효도관광 진행 오영태 기자 | gptjd00@hanmail.net | 2018.05.05 09:53:33 [프라임경제] 충남 예산군노인종합복지관(관장 육통스님)이 어버이날을 맞아 재가 어르신과 함께 떠나는 행복플러스 제주효도관광 나들이를 지난 4월24일~26일 2박3일간 진행했다. 어르신 10명과 종사자도 함께 어르신들의 안전을 위해 2:1 맞춤형 서비스를 제공해 행복하고 신나게 제주도에 다녀왔다.예산군노인종합복지관(관장 육통스님)이 어버이날을 맞이하여 재가 어르신과 함께 떠나는 행복플러스 제주효도관광 나들이에서 기념촬영을 하고 있다. ⓒ 예산군청어르신들은 여행을 간다는 설레는 마음으로 군산공항에서 제주도로 출발했다. 첫날, 선녀와나무꾼(옛 추억의 테마파크)을 방문하여 옛 추억을 회상하며 즐거운 시간을 보내고, 둘째날, 애월한담해안로, 여미지 식물원, 주상절리에서 아름다운 경치를 감상했다. 마지막 날에는 에코랜드 기차여행을 떠난 후, 여행의 피로를 풀기 위해 족욕마사지를 체험하며 제주도 2박3일 여행을 알차게 진행했다.재가 어르신들은 "생전 처음 가는 제주도 여행에 다음에 또 갈 수 있을까 하는 아쉬움으로 한편으로 마음이 아프지만, 추억 가득한 시간이었고 함께해서 행복한 시간이었다"고 말했다.육통관장스님은 "어르신들의 제주도 효도관광은 경제적, 환경적 어려움으로 자립적인 나들이가 어려운 분들을 위한 행사라 어르신들의 욕구 해소와 삶의 활력을 충전할 수 있는 좋은 기회가 되었으며, 앞으로도 재가 어르신의 행복과 복지 증진을 위해 노력하겠다"고 약속했다. 오영태 기자 gptjd00@hanmail.net 오영태 기자의 전체기사 보기 이 기사를 공유해보세요 ⓒ 프라임경제(http://www.newsprime.co.kr) 무단전재 및 재배포금지 많이 본 뉴스 여의도 25시 여야 외교부장관 경질 논란… 어대명 기류 인한 강대강 우려 속 민… [여의도 25시] 졸속 입학연령 하… 국민의힘 내 비대위 전환 움직임, 최… 경찰국 신설, 경찰회의 이후 여야 갈… 대통령실 사적채용 논란, 스노우볼… HR 봐주기 or 안전 불감증…SK하… 박우량 신안군수의 ‘진짜 신안’… + 더보기 인사이드컷 [포토] 장애인거주시설이용자부모회, 민주당에 탈시설 지원법 철회 촉구 … + 더보기 회사소개| 광고/제휴문의| 찾아오시는길| 이용약관| 개인정보취급방침| 이메일 무단수집거부| 청소년보호정책| 독자권익위원회| 고객센터 (우) 07333 서울시 영등포구 여의대방로67길 9 (여의도동 44-33) 두일빌딩3층 | Tel : 02-761-6114 | Fax : 02-761-6163 상호명 : (주)프라임경제 (제호:프라임경제) | 발행인 : 이종엽 | 편집인 : 이 호 | 청소년보호관리책임자 : 정호수 인터넷신문 등록 No.서울,아00487(등록일:2008년01월04일) Copyright ⓒ 2005 프라임경제 All rights reserved. 모바일 보기</t>
-  </si>
-  <si>
-    <t>제주도 서귀포 중문 관광과 흑돼지 맛집 ‘돈가득’에서 즐기는 싱그러운 봄 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-04 10:22 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문 관광과 흑돼지 맛집 ‘돈가득’에서 즐기는 싱그러운 봄 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 서귀포 중문 관광과 흑돼지 맛집 ‘돈가득’에서 즐기는 싱그러운 봄 기자명 이수호 기자 승인 2018.05.03 16:43 댓글 0 조회수 : 2320 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 변덕스러운 날씨지만 역시 완연한 봄이다. 파란 하늘과 따뜻한 날씨, 투명한 바다와 꽃과 나무가 있는 곳 중에 제주도만큼 아름다운 곳이 우리나라에 또 있을까. 지금 제주도는 4월 유채꽃 시기를 지나 수국이 그 뒤를 이어 관광객들을 맞이한다. 가정의 달 5월을 맞아 제주도에 방문할 계획이라면 서귀포에 있는 동양 최대 규모 동백수목원 ‘카멜리아힐’에 들러 아름다운 각종 봄꽃과 함께 수국의 매력에 빠져보자. 진심과 처녀의 꿈이라는 꽃말을 가진 수국은 마치 수많은 꽃이 원모양으로 한데 모인 듯 독특하면서 아름다운 자태를 뽐낸다.그렇게 ‘카멜리아힐’에서 수국과 꽃으로 힐링했다면 중문으로 자리를 옮겨 본격적인 관광이 가능하다. 우리나라에서는 볼 수 없는 희귀 난대림 식물과 3단으로 쏟아져 내려오는 폭포수의 모습이 장관인 ‘천제연폭포’와 오랜 시간 파도와 부딪혀 만들어낸 육각기둥의 웅장한 절경이 매력적인 ‘주상절리’에 들러 특별한 추억을 만들 수 있다. 자연이 선사하는 그림 같은 경관에 깊게 감동했다면 그 다음은 역시 중문 흑돼지 맛집에서 즐기는 식도락이다. 복분자 흑돼지 전문점 ‘돈가득’은 관광객뿐 아니라 현지인들도 많이 찾는 명실상부 중문 맛집으로 품질 좋은 참숯에 고기를 굽고 두툼하고 육질 좋은 제주산 흑돼지에 굽기 직전 복분자를 뿌려주어 잡내를 없애 만족도가 높은 곳이다. 제주도 서귀포 흑돼지 맛집으로는 손꼽힐 정도의 인기인데, MBC에브리원 ‘맛있을 지도’ 방송에 소개되어 MC 개그맨 김경식과 일본여자연예인 사유리의 극찬을 받기도 했다. 흑돼지 근고기 외에 점심특선메뉴로 전골이 푸짐하게 들어간 ‘흑돼지불고기전골’을 제공하고 다양한 부위의 고기 또한 맛볼 수 있다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 부산 사상구의회 ‘골목상권 공동체 육성 및 활성화 지원’ 조례 제정 더불어민주당 부산시당, “경남이 걷어찬 부울경 메가시티, 대통령실이 정리해야” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 선배가 들려주는 창업… 말랑하니의 ‘성장 스토리’ 르노코리아차, SM6 필 트림 새롭게 출시 부산 치의학 인재 양성 지산학 협력… 30호 브랜치 ㈜디오에 개소 XM3, 부산공장 생산 20만대 돌파 인기뉴스 1 HJ중공업, 거제공장 개장…일감 증가에 조선부문 투자확대 2 [인터뷰] “인기절정 신혼여행지 몰디브, 사전예약 통해 알뜰하고 지혜롭게” 3 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 4 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” 5 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 6 국립해양박물관 소장 ‘감로도’, 부산시 문화재 지정 7 BNK캐피탈 “AI챗봇으로 고객편의·업무효율 제고” 8 캠코, 2384억원 규모 압류재산 공매…부산 32건 포함 포토뉴스 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” 최신뉴스 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” [인터뷰] “인기절정 신혼여행지 몰디브, 사전예약 통해 알뜰하고 지혜롭게” 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>예산군노인종합복지관, 제주도 ‘효’ 관광나들이 &lt; 보령·서산·당진·서천·예산·청양·태안·홍성 &lt; 충남 &lt; 기사본문 - 동양일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 기사검색 검색 2022-10-03 20:07 (월) 기사제보 모바일웹 구독신청 로그인 뉴스 정치 사회 경제 교육 문화 과학 의학 연예 스포츠 포토 지역 충북 충남 세종 오피니언 지난 오피니언 기획·특집 지난 특집 이사람 이런일 인사/동정 생활정보 인물 독자참여 알립니다 오늘의 운세 오늘의 역사 아침을 여는 시 자료실 전체 메뉴 본문영역 이전 기사보기 다음 기사보기 예산군노인종합복지관, 제주도 ‘효’ 관광나들이 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 충남 보령·서산·당진·서천·예산·청양·태안·홍성 예산군노인종합복지관, 제주도 ‘효’ 관광나들이 기자명 천성남 입력 2018.05.07 18:40 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 재가 효도 관광 나들이 (동양일보 천성남 기자) 예산군노인종합복지관(관장 육통스님)이 어버이날을 맞아 재가어르신 제주도 효도관광 나들이를 실시했다. 재가 어르신 10명을 대상으로 2박3일간 진행한 효 관광은 어르신들의 안전을 위해 맞춤형 종사자 케어로 진행했다. 3명의 어르신은 생애처음 받을 딛는 제주도 선녀와나무꾼(옛 추억의 테마파크), 을 방문, 애월한담해안로, 여미지 식물원, 주상절리 등 아름다운 추억여행과 에코랜드 기차여행에서 족욕마사지 체험 등 추억을 쌓는 여행을 진행했다. 육통스님은 “경제적, 환경적 어려움으로 나들이가 어려운 분들을 위한 행사로 어르신들의 욕구 해소와 삶의 활력을 충전할 수 있는 좋은 기회가 되었다”며 “앞으로 재가 어르신의 행복과 복지 증진을 위해 더욱 노력하겠다”고 밝혔다. 예산 천성남 기자 동양일보TV 천성남 go2south@dynews.co.kr 다른기사 보기 저작권자 © 동양일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 태안 자연산 대하·꽃게 대풍년...지난해 절반 가격 공주서 음주단속 도주 40대 운전자 사망 푸틴, 우크라 점령지 합병조약 서명…"모든 수단으로 지킬 것" 나들이 나섰다 참변 당한 일가족…1명 숨져 대전 현대아울렛 화재…소방, 대응 2단계 발령 7명 숨진 대전 화재…청주 현대백화점 충청점 주차장도 똑같았다 특별인터뷰/ 조원익 청주병원 행정원장 "41년의 역사, 충북 최초의 종합병원을 일방적으로 내모는 일은 잘못" 태안 자연산 대하·꽃게 대풍년...지난해 절반 가격 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 인기기사 태안 자연산 대하·꽃게 대풍년...지난해 절반 가격 공주서 음주단속 도주 40대 운전자 사망 푸틴, 우크라 점령지 합병조약 서명…"모든 수단으로 지킬 것" 나들이 나섰다 참변 당한 일가족…1명 숨져 대전 현대아울렛 화재…소방, 대응 2단계 발령 7명 숨진 대전 화재…청주 현대백화점 충청점 주차장도 똑같았다 알립니다 17회 충북여성문학상 시상식 날짜 변경 안내 12회 '우리말글겨루기' 대회 29회 동양일보 신인문학상 공모 동양일보TV 구용섭 보은대추한과 대표 오늘 많이 본 뉴스 주간 많이 본 뉴스 1 나들이 나섰다 참변 당한 일가족 2 제천 의림지 리조트 조성사업, 투자협약 세번째 연기... 사업 무산 우려 3 단양 도담정원, 2만㎡ 코스모스 물결 장관... 계절별 초화류 정원 조성 4 아산축협 한우고기 촉진위한 시식과 할인행사 성료 5 [결혼] 장승일(제천 쌍용자동차)씨 자혼 6 ‘안녕 보령’ 2022 충청남도체육대회 4일간의 여정 막 내리다 7 음성 맹·사·모, 지역 어르신들을 위한 사랑나눔 오찬 8 청주대 태권도 ‘금빛 발차기’… 전국종합 3위 9 2회 제천 수제맥주&amp;달빛야시장 축제 개최 10 충북대병원, 신뢰·존중 받는 병원으로 ‘우뚝’ 1 태안 자연산 대하·꽃게 대풍년...지난해 절반 가격 2 푸틴, 우크라 점령지 합병조약 서명…"모든 수단으로 지킬 것" 3 나들이 나섰다 참변 당한 일가족…1명 숨져 4 7명 숨진 대전 화재…청주 현대백화점 충청점 주차장도 똑같았다 5 조정대상지역해제 이후, 청주시 흥덕구 아파트 중도금 대출액 비율 논란 6 청주대생 ‘히든싱어7’ 최종우승 7 전국택시업계, “국민 안전 위협하는 택시 부제해제 철회하라” 8 교비횡령 충청대총장 벌금 200만원 ''자리지켰다" 9 청주시 복대동, '양동이 마을' 오명 벗는다 10 조정지역해제됐지만... 첫날부터 떨어지는 지역 아파트 가격 포토뉴스 풍향계/ 평등교육의 교육개혁적 과제 조덕진 충북도 기획관리실장 30일 취임 충북대병원, 간호인력 43명 감축 ‘어쩌나’ 대전신세계갤러리 27일까지 ‘이응노, 다시 만난 세계’전...고암의 수작들을 만나다 추천 많은 뉴스 정치 사회 경제 김태흠 '표 농지개혁’ 제시 '저출산.농촌소멸 대한민국 아젠다’...‘ 제천시의회, 예산낭비·행정의 위법 관련 시민제보 받는다. 윤대통령 "북, 핵무기 사용 기도한다면 압도적 대응 직면할 것" 푸틴, 우크라 점령지 합병조약 서명…"모든 수단으로 지킬 것" 보은군의회, 373회 임시회 의원 발의 조례 2건 의결 조덕진 충북도 기획관리실장 30일 취임 충북대병원, 간호인력 43명 감축 ‘어쩌나’ 충북도, 무기질비료 구입비 263억원 지원 3일 충북에서 코로나19 신규확진자 229발생 비 온 뒤 기온 낮아져요…최저 18도 온라인에서 만나는 청원생명축제 '라이브커머스' 충북지식재산센터 5기 지식재산 창업교육 수료 에코프로 대학 전기차 제작 동아리 4천만 후원 고용노동부, 30인 이상 사업장 내달 11일까지 근로감독 지역 업체 업황 좋지 않다… 국내외 여건 좋지 않아 당분간 악화일로일 수도 하단영역 Copyright © 2022 동양일보. All rights reserved. mail to dynews@dynews.co.kr facebook 하단메뉴 매체소개 고충처리인 기사제보 광고문의 불편신고 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 충청북도 청주시 청원구 충청대로 103 (율량동) 대표전화 : 043)218-7117 팩스 : 043)218-7447,7557 창간 : 1991-12-29 제보전화 : 043)218-7227 청소년보호책임자 : 신선호 명칭 : 동양일보 제호 : 동양일보 등록번호 : 충북 가 00003 회장 : 조철호 발행일 : 1991-12-27 등록일 : 1991-12-27 발행/인쇄인 : 조석준 편집인 겸 편집국장 : 임재업 동양일보 모든 콘텐츠(기사)는 저작권법의 보호를 받는 바, 무단전재, 복사, 배포 등을 금합니다. 위로 전체메뉴 전체기사 정치 전체 중앙정치 지방정치 선거 사회 전체 목격자를찾습니다 공개수배 경제 전체 건설 기업 농수산 산업 수출 부동산 자동차 생활경제 금융 충북팜스테이를 찾아서 주간농사정보 노무상식 세무상식 법률상식 주식 유통 전국동시조합장선거 교육 문화 전체 종합 문학 종교 여성 공연 전시 책 눈으로보는클래식이야기 문화가있는커피이야기 김득진작가와떠나는쿠바여행 우리동네 숨겨진 이야기 구본경의 화폐이야기 친숙한 우리말 오늘의문화예술행사 젊은예인충북의문화를이끈다 책을만나는공간 역사 아침을여는시 오늘의 역사 과학 의학 전체 바이오칼럼 건강 홈닥터 연예 전체 연예 영화 TV/방송 스포츠 전체 종합 야구 축구 배구/농구 골프 올림픽 충북 전체 충주·제천·단양 진천·음성·증평·괴산 보은·옥천·영동 세종 충남 전체 공주·계룡·논산·아산·천안·금산·부여 보령·서산·당진·서천·예산·청양·태안·홍성 오피니언 전체 동양칼럼 풍향계 기자수첩 오늘의주장 동양에세이 프리즘 차한잔 유리창 현장에서 특별기고 기고 의학칼럼 종교칼럼 문화칼럼 잊을수 없는 환자·의료인 데스크칼럼 청주역사문화연구소 릴레이기고 기획·특집 전체 동양포럼 강소농을 꿈꾼다 대표바이오산업 기업탐방 우리 지역 글로벌 기업 이·통장이 소개하는 우리 동네 이야기 우리동네특화사업은? 지역현안… 이것부터 우리는 동호인 신인문학상 재일조선인의삶75년 창사30주년특집 조철호가만난사람 유영선이만난사람 조선통치비화 김홍균이만난사람 젊은 예술가의 지금 여기 사랑의점심나누기 포토 전체 생태사진작가조유성의앵글 사진작가정만희의얼굴 조유성사진기자의생태보기 인물 전체 뉴스의인물 화제의인물 클릭이사람 새인물 인터뷰 포커스 청주人을 찾아서 동양일보올해의인물 동양일보TV 인사/동정 전체 인사 동정 행사 오늘의운세 생활정보 전체 부고 결혼 알림 손님 개업 추천맛집 스팟뉴스 전체 태풍 ’솔릭’ 실시간 제보 지난 오피니언 전체 김홍석원장의동안피부만들기 최천호목사의조국을위해십자가를진신석구 박현무원장의 반려동물과 아름다운동행 손바닥만한이야기 비로소띄우는마음의편지 이준경요리사의즐거운식탁 최태호교수의다문화사회바로보기 새내기교사의교단일기 중국동포가본순회문학제 교단에서 지난 특집 전체 동양초대석 조철호가만난사람 유영선이만난사람 김홍균이만난사람 이가을엔 신년특집 창사특집 창간특집 2013새롭게 가자 숨어있는문화재베일을벗기다 동아시아의공통가치를찾아서 포석 조명희를 찾아서 권희돈 문학테라피스트의 '문학을 통한 치유와 소통' 레저/여행 위기의단체장흔들리는지역민심 여기는 현장 찾아가는 교육현장 함께하는 세상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 홍콩 관광객 유치 제주관광설명회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 홍콩 관광객 유치 제주관광설명회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 홍콩 관광객 유치 제주관광설명회 개최 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.05.02 18:28 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 2일 홍콩 메리어트 호텔에서 현지 80여개 여행업계 대상 제주관광통합설명회를 개최했다고 밝혔다.이번 통합설명회는 제주도와 제주관광공사, 제주특별자치도관광협회, 제주도내 사업체가 합동으로 제주관광마케팅단을 구성해 제주의 신규관광자원을 소개하고, 제주 업계와 현지 여행사 간 B2B 비즈니스 상담회 등 제주관광홍보 세일즈를 전개했다.특히, 홍콩관광청(청장 안토니 라우, Anthony Lau)과 무사증제도를 활용한 상품개발 및 동남아, 러시아, 중동 크루즈관광객 유치 등 시장다변화를 위한 협조체계를 구축키로 했다.설명회는 B2B 비즈니스 상담회를 통해 제주도내 16개 관광사업체와 홍콩 현지 여행업계 간 제주 관광 상품 구성과 유치를 위한 상담이 진행됐으며, 이어진 제주관광설명회에는 100여명의 현지 여행사, 항공사, 언론사들을 대상으로 제주관광상품에 대한 설명을 진행했다.제주도 관계자는 "4.3 70주년 기념 제주 방문의 해를 맞이해 다크투어리즘 관련 이벤트 및 스마트관광 환경 조성 등 다양한 정책을 마련해 홍콩 관광객들의 제주방문 만족도를 높이는데 노력할 것"이라며 "향후 더 많은 홍콩 관광객이 제주의 자연과 문화를 체험하기를 희망한다"고 말했다.이어 "다음 달에는 홍콩 국제관광박람회에 참가하며, 7월에는 홍콩 여행 작가를 활용한 FIT 대상 설명회를 개최하는 등 중화권 관광마케팅 활동을 점차 확대해 나갈 계획" 이라고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+    <t>제주도 외국인 관광객 자전거 투어 상품 첫 선 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 외국인 관광객 자전거 투어 상품 첫 선 파이낸셜뉴스입력 2018.05.29 11:19수정 2018.05.29 11:21 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주관광공사, 5월26~30일 동남아 관광객 14명 자전거 투어 진행 [제주=좌승훈기자] 제주특별자치도와 제주관광공사(사장 박홍배)는 지난 5월26일부터 30일까지 6일 간 대만·홍콩·싱가포르·말레이시아 관광객 14명 대상으로 자전거 투어를 진행하고 있다. 이번 자전거 투어는 지난해 6월 제주도와 제주관광공사, 도내 SIT(Special Interest Tour, 특수목적관광) 전문 여행사, 대만 현지 자전거투어 전문 여행사와 공동으로 추진했던 자전거 투어 상품개발 팸투어를 통해 실제 상품으로 연결된 성과다. 자전거 투어 상품을 개발한 '자이언트 어드벤처(捷安特旅行社)'는 대만 현지 자전거 투어 전문 여행사다. 그동안 유럽과 미국 등 해외 자전거 투어 상품을 개발해 왔으며, 국내에선 2016년 서울과 부산에 이어 제주가 세 번째다. 자전거 투어 상품은 4박5일 관광상품이며, 자전거 투어는 2일차부터 시작된다. 제주-협재-대정, 3일차 대정-중문-서귀포, 4일차 서귀포-표선-성산, 5일차 성산-세화-함덕-제주시 등 총 232km 구간이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 여행, 서귀포 중문 관광과 흑돼지 맛집의 콜라보 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 여행, 서귀포 중문 관광과 흑돼지 맛집의 콜라보 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 여행, 서귀포 중문 관광과 흑돼지 맛집의 콜라보 기자명 이수호 기자 승인 2018.05.30 16:46 댓글 0 조회수 : 2145 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 빈번했던 미세먼지 소식도 현저히 줄어들고 화창한 날씨가 지속되는 요즘이다. 무더운 한여름이 아닌 이맘때에 떠나는 제주도 여행은 일 년 중 관광하기 가장 좋은 때다. 특히 제주도 서남부에 위치한 ‘중문관광단지’는 다채로운 볼거리와 제주특산 음식, 오랜 세월 자연이 만들어낸 천혜의 자연경관 등이 눈길을 사로잡는 ‘제주도 관광의 꽃’이라 불리는 곳이다. 제주도는 렌터카를 이용해 곳곳을 다니며 드라이브만 해도 기분전환이 되지만 여행기간이 짧다면 더욱 중문 안에서 즐기는 관광을 권한다. 먼저는 호텔신라와 롯데호텔, 하얏트리젠시제주 등 고급 호텔과 다양한 숙박시설이 있고 ‘천제연폭포’와 ‘주상절리대’, ‘별내린전망대와 ‘색달해수욕장’, 다양한 주제의 박물관 체험까지 제주도 알곡 여행의 조건을 모두 갖췄다. 또 중문 가까이에 위치한 ‘카멜리아힐’에서 즐기는 수국축제 역시 볼만한 코스다. 형형색색 동그란 모양의 아름다운 자태 뽐내는 수국과 함께 찍은 사진이면 그 어떤 인생사진이 부럽지 않을 것이다. 마지막은 역시 제주특산 음식 중에서도 빠질 수 없는 흑돼지 식사다. 중문 2025-1에 위치한 ‘돈가득’은 서귀포 중문 복분자 흑돼지 맛집으로 품질 좋은 참숯에 고기를 굽는데 굽기 직전 복분자를 뿌려주어 잡내를 없앤다. 미리 뿌려두면 고기가 흐물흐물해지기 때문에 굽기 직전 뿌리는 것이 핵심인데, 참숯으로 인한 훈연의 향과 복분자의 달달한 향이 가미되어 독보적인 흑돼지 맛을 자랑한다. 서귀포 흑돼지 맛집으로 관광객뿐 아니라 현지인들에게 인정받고 있는 ‘돈가득’은 고객들의 재방문율이 높을 뿐 아니라 MBC에브리원 ‘맛있을 지도’ 먹방 프로그램에도 소개된 명실상부 중문 맛집이다. 제주산 청정재료로 주인장이 직접 만든 정갈한 반찬뿐 아니라 점심특선메뉴로 제공되는 전복이 듬뿜 들어간 ‘흑돼지불고기전골’ 메뉴 역시 이곳의 인기 요인들인데, 제주도 흑돼지 맛집 ‘돈가득’ 관계자는 “정성을 맛으로 인정해주시고 알아봐주셔서 감사할 따름이다. 칭찬해주시는 장점은 그대로 유지하면서 부족한 부분은 바로바로 채워나가려 한다. 신선하고 좋은 재료로 푸짐한 식사가 가능하니 많은 관심과 성원 부탁드린다”라고 전했다. 제주도 서귀포 중문에서 즐기는 제대로 된 흑돼지 한 끼 식사는 ‘돈가득’에서, 예약 및 문의 가능하다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 내국인 관광객 증가율 뚝↓...이유는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 내국인 관광객 증가율 뚝↓...이유는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 내국인 관광객 증가율 뚝↓...이유는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.05.28 12:35 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 2010년 이후 지속적으로 두자릿수 증가율을 보여오던 제주도 입도 내국인 관광객이 올해들어 증가폭이 크게 줄어든 가운데, 이의 요인은 여행수요 감소 보다는 교통 접근성 한계의 문제가 큰 것으로 분석됐다.한국은행 제주본부가 28일 발표한 경제브리프 '제주지역 내국인 관광객 증가세 둔화 요인 및 시사점' 보고서에 따르면 제주도 내국인 관광객은 2010년부터 2017년까지 연평균 10.3% 증가하면서 제주경제 성장을 견인해 왔다.그러나 올해 3~4월 중에는 증가율이 지난해 같은기간에 비해 1.5%에 그치는 등 크게 둔화된 것으로 나타났다. 한국은행 제주본부는 이러한 둔화요인을 제주관광 수요의 포화 가능성을 들었다.2017년 중 제주방문 내국인 관광객수(1352만명)가 10년 전에 비해 3배나 증가하는 등 제주여행을 경험한 내국인이 늘어나 제주여행 수요가 임계치에 이르렀을 가능성이 있을 것으로 분석했다.또 내국인의 국내여행지로서의 제주에 대한 관심도는 60%대로 여전히 높은 수준이나 이러한 관심도가 실제 여행 계획으로 이어지는 비중은 하락하는 것으로 내다봤다.그러면서도 여행수요의 문제 보다는 공급 요인 때문일 가능성에 무게를 뒀다.제주노선 항공기 탑승률이 90%를 상회하고 이착륙 지연사례도 늘어나는 등 제주공항의 여행객 수용 능력이 사실상 포화상태라는 것이다.여기에다 제주 항공노선이 지난 3월 이후 이용객이 가장 많은 ‘제주-김포’간 노선을 중심으로 전년대비 주 4회 축소되면서 제주에로의 접근성이 저하된 문제를 들었다.항만 여객 노선도 일부 지역으로 한정된 데다 특히 인구가 가장 많은 수도권과의 노선 재개가 불확실해 여행객 증가가 제한적으로 나타나는 것도 요인으로 제시했다.기상악화 요인도 크게 작용한 것으로 분석했다.올해 1~4월 중 기상악화에 따른 항공편 결항횟수(537회)가 지난해보다 3배 증가하면서, 이로 인해 제주를 방문하지 못한 내국인 수는 약 7만7천명 정도에 이를 것으로 추산했다.한국은행 제주본부는 내국인 관광객 수요요인이 약화된 가운데 제주 항공노선 축소 등 공급 여건도 제한적이어서 내국인 관광객 증가세 둔화는 당분간 이어질 것으로 전망된다고 밝혔다.이러한 상황에서 관광정책은 관광객 수 증가보다는 관광산업의 질적 성장에 초점을 맞추는 것이 바람직하다고 제언했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>6월 제주도 여행 10선...놓치면 후회할 관광명소는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 6월 제주도 여행 10선...놓치면 후회할 관광명소는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 6월 제주도 여행 10선...놓치면 후회할 관광명소는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.05.24 14:29 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사(사장 박홍배)는 24일 ‘꽃과 바다 그리고 별 헤는 제주’라는 테마를 주제로 관광지, 자연, 체험, 축제, 음식 등 5가지 분류에 대해서 놓치지 말아야 할 제주 관광 추천 10선을 발표했다.1. 길을 헤매도 좋은, 유달리 사랑스러운- 종달리 마을 잠시 길을 잃고 헤매도 괜찮다. 낯선 그 길 끝에 생각보다 멋진 장면이 당신을 기다릴 테니까. 제주 동쪽 끝, 지미봉 아래 소담히 자리한 종달리 마을에서 발길이 이끄는 대로 따라가 보자. 낮은 돌담길 구석구석마다 아기자기한 가게를 생각지 못한 선물처럼 마주하게 된다. 독립서점 ‘소심한 책방’은 서점주인의 독특한 시선이 담긴 책으로, 핸드메이드 도자기 가게 ‘도예시선’은 제주 감성이 듬뿍 담긴 그릇과 소품으로 여행객의 눈을 사로잡는다. 담벼락마다 그려진 벽화는 종달리에 사랑스러움을 더한다. 골목 여행 중 다리가 저려올 땐 조용한 카페에서 느긋하게 쉬어가도 좋다. 마을의 숨겨진 명소를 찬찬히 살펴보고 싶다면 퐁낭투어 코스가 제격. 종달리의 아늑하고 정겨운 매력은 천천히 걸을수록 가슴 깊이 스며든다.2. 아픔 속에서도 잎은 피더라- 불카분낭, 선흘 동백동산 생각지 못한 곳에서 상처를 치유 받을 때가 있다. 조천읍 선흘리는 제주 4.3 때 온 마을이 불에 타 초토화되었다. 마을을 지켜온 팽나무도 불에 타들어 갔다. 하지만 몇 년 후, 죽은 줄만 알았던 팽나무에서 새싹이 돋아났고 팽나무의 밑동 한 켠엔 어디선가 날아온 다른 나무의 씨가 아픔을 보듬어주듯 같이 잎을 틔워냈다. 불에 타버린 나무라 하여 불카분낭이라 붙여진 이 팽나무는 제주 4.3의 상흔을 그대로 간직한 채 초록 잎을 피워 사람들을 위로하고 있다. 선흘리 곳곳에는 제주 4.3의 아픔이 그대로 남아있다. 제주 4.3 당시 마을 주민들이 몸을 숨겼던 토들굴이 있는 선흘 동백동산과 그 당시 고통스러웠던 삶이 고스란히 남아있는 낙선동 4.3 성터까지 둘러보기를 추천한다. 아름다운 섬 제주에서 평화의 의미를 새기는 의미 있는 여행이 될 수 있길 바란다. 3. 몽환의 습지, 물안개 피어오르는 언덕- 물영아리오름 제주 여행에 비가 내린다고 슬퍼할 이유가 없다. 떨어지는 비와 함께 안개 핀 몽환의 숲이 물영아리오름에 모습을 드러낸다. 물영아리오름은 제주의 오름 가운데 산정호수를 간직하고 있는 흔치 않은 오름으로, 물이 고여 있는 신령스러운 오름이라 하여 물영아리오름이란 이름이 붙여졌다. 촉촉이 내리는 빗방울을 맞으며 수백 년 동안 오름을 지켜 온 삼나무와 활엽상록수가 내뿜은 청량한 내음을 들이마시면 환상 속 정취가 느껴진다. 물영아리 습지는 비가 오고 나면 절정을 달한다. 날이 가물 때는 습지를 품고 있다가 한바탕 비가 온 뒤, 분화구 내에 호수를 이룬다. 빗물이 고여 이룬 분화구 내 산정 호수와 물안개는 신비한 분위기를 자아낸다. 정상까지는 30분 정도 소요되는데 계단이 가파른 편이기 때문에 조금은 돌아가더라도 완만한 경사의 신설 탐방로를 따라갈 것을 추천한다.4. 빛이 내려앉은 숲 속, 작은 우주로- 청수리 ‘곶자왈 반딧불이 축제’ 자연이 만들어낸 숲속 작은 우주로, 도심 속 화려한 네온 불빛에 지친 당신을 초대한다. 원시림의 모습을 간직한 청수 곶자왈에서는 밤이 되면 반딧불이의 초롱한 빛이 가득 차 특별한 밤을 선사한다. 어둠이 깔린 뒤 하나둘씩 나타나는 반딧불이는 청수 곶자왈을 작은 우주로 만든다. 6월 1일부터 40일간 진행되는 반딧불 체험은 하루 900명 제한으로 당일 오후 2시부터 현장예매만 가능하다. 오후 8시부터 9시 30분 동안 15분 간격을 두고 선착순으로 입장하게 되며, 우천시에는 체험 프로그램을 진행하지 않는다. 반딧불이는 청정지역에서만 서식하며 환경에 민감한 곤충이기 때문에 특별한 주의가 필요하다. 반딧불이를 관람할 때는 큰 소리를 내거나 뛰어서는 안 되며, 사진 촬영이나 플래시는 금지된다. 손으로 반딧불이를 잡는 행위 또한 금지된다. 기본에티켓을 꼭 숙지하여 곶자왈 속 작은 우주를 지키기 위한 노력을 함께하자.※ 체험 프로그램 진행 내용은 상황에 따라 변경될 수 있음(문의 064-772-1303)5. 잠자는 책과 자연을 꺼내어- 제주탐나라공화국 ‘제주헌책페어’ 인간의 무한한 상상력이 제주를 무대로 실현된다면? 제주탐나라공화국은 3만평의 돌무지를 전혀 다른 세계로 창조했다. 제주의 화산지형은 그대로 보존하면서, 발길 닿는 곳마다 독특한 아이디어를 담은 제주탐나라공화국은 5월 25일부터 6월 말까지, 37일 동안만 신비의 문을 개방한다. 제주탐나라공화국에서는 폐기처분되는 헌책의 가치를 발견해 헌책도서관을 구축하여 5월 26일부터 6월까지 ‘제주헌책페어’를 개최한다. ‘제주헌책페어’에 참가하기 위해선 헌책 5권이 필요하다. 헌책 5권을 건네면 1년짜리 제주탐나라공화국 입국 비자가 발급된다. 빈손으로 가게 될 경우 '입국세' 3만원을 내야 한다. ‘제주헌책페어’ 기간에는 스토리 투어, 미술 전시회, 인문학 강연, 공예체험과 같은 다양한 프로그램이 진행된다. 6월 제주로 떠나기 전, 방구석에 자고 있는 잠자는 책을 깨워 탐나라공화국으로 입국해보자.6. 굽이치는 파도, 작가의 사색 - 자구리 공원 ‘작가의 산책길’, 소라의 성 예부터 수많은 예술가들은 인간이 구현할 수 없는 자연의 미학을 통해 영감을 얻었다. 서귀포 앞 자구리해안은 화가 이중섭에게 그러한 곳이었다. 깊고 푸른 바다 위의 예술품, 섶섬과 문섬을 배경으로 아이들이 뛰노는 모습은 그의 작품 속에 고스란히 녹아있다. 자구리 공원은 이중섭을 기억하며, 그의 영향을 받은 예술가들의 작품들로 꾸며졌다. 이곳은 이중섭미술관에서 시작해 소암기념관까지 이어지는 ‘작가의 산책길’ 코스와 연결된다. 해안절벽 위의 건물을 시민 북카페로 단장한 ‘소라의 성’은 누구나 이용할 수 있어 잠시 숨 고르며 차 한 잔 마실 수 있다. 공원 옆 소남머리에 서서 주상절리가 유려하게 펼쳐진 해안가를 두 눈에 담으면 가슴이 탁 트이며 온 세상이 예술로 다가온다. 7. 여름이 오는 소리, ‘수국’- 제주의 수국길 여름이 다가오면 제주 곳곳에서 꽃망울 틔우는 소리가 소곤소곤 들린다. 작은 꽃잎이 모여 풍성한 자태를 완성하는 수국은 초여름 특유의 청초함을 닮았다. 이름에 걸맞게 물을 좋아하는 수국은 빗방울을 머금었을 때 오묘한 분위기를 뽐내, 초여름 내리는 비는 수국을 더욱 아름답게 물들인다. 수국은 토양 성분에 따라 색색의 꽃을 피운다. 특히 제주에는 바다를 닮은 푸른 수국이 유명하다. 키를 훌쩍 넘는 푸른 수국이 유명한 위미리 수국길은 수국에 파묻혀 인생 사진을 남기기 좋다. 끝없는 수국길이 이어지는 안덕면 사무소 앞길은 꽃길 따라 산책하기를 추천한다. 색색의 수국이 아름다운 안성리 수국길 등 6월 제주는 곳곳이 수국으로 물든다. 휴애리와 카멜리아힐에서도 수국과 함께 제주에 여름이 당도했음을 알린다. 수국을 따라 걷다 보면 비 오는 제주마저도 흠뻑 사랑하게 될지도.8. 노을빛 붉은 바다의 위로- 닭머르 해안길 현실에 지친 사람들을 다독여 치유하는 특별한 힘이 노을에 담겨있기 때문일까. 해안 절경과 절묘하게 어우러진 바다는 붉은 노을에 물들어 위로의 눈빛을 보낸다. 고생했다고, 잘 하고 있다고. 올레길 18코스에 위치한 닭머르 해안길은 유달리 붉은 제주의 저녁노을을 감상할 수 있는 뷰포인트 중 하나다. 닭이 흙을 파헤치고 그 안에 들어앉은 것처럼 보인다 하여 ‘닭머르’라고 이름 붙여진 이 해안길은 전망대까지 나무데크로 이어져 있어 산책하기 편하다. 닭머르 해안으로 가는 길목에 자리한 남생이못 습지생태관찰원도 들러볼 만한데, 신촌리 주민들의 손길로 잘 정비되어 있어 아이들의 생태학습장으로도 포토스팟으로도 인기 있다. 하루의 끝에 닭머르 해안가에 서서 붉은 노을이 뿜어내는 따스한 빛을 온몸으로 저장해두자. 제주 노을의 붉은 온기는 내일을 살아갈 건강한 에너지가 되어 줄 것이다. 9. 제주의 숨결을 빚다 - 제주 구억옹기마을 ‘놀멍 빚으멍’ 제주 옹기는 들숨과 날숨을 내뱉으며 살아 숨 쉰다. 일반 옹기와 달리 유액을 입히지 않아 단단히 굳어진 흙의 미세한 틈 사이로 제주의 숨결이 드나드는 것이다. 대지의 기운을 머금은 옹기토는 장인의 땀방울을 더한 후, 1200도로 달아오른 불을 만나 제주 옹기로 탄생한다. 250년 전부터 옹기를 생산해 온 구억 마을의 옹기체험학교 ‘놀멍 빚으멍’에서는 제주 전통옹기를 직접 만들어볼 수 있다. 아이와 함께 체험할 수 있으며 체험비용은 개인 20,000원으로 약 2시간 정도 소요된다. 완성한 옹기는 한 달 정도 기다리면 집으로 배달된다. 시원하게 내리는 빗소리를 들으며 촉촉하고 부드러운 흙의 감촉을 손끝으로 느껴보자. 손길 닿는 대로 나만의 멋이 드는 제주 옹기 체험은 사전 예약이 꼭 필요하다. 관련 내용은 064-792-1509로 문의.10. 제주 인심, 성게의 변신은 무죄 - 제주 성게요리 아직 여름 바다를 즐기기에는 이른 시기. 그 아쉬움을 바다향 가득한 음식으로 달래보는 건 어떨까. 6월 초부터 7월까지 제주는 성게가 제철이다. 6월이면 제주 바다 연안에서는 이색 장관이 펼쳐진다. 성게 채취를 위해 해녀뿐만 아니라 집안의 일손을 보탤 수 있는 사람들은 모두 바닷가로 나와 해녀가 채취해온 성게 작업을 함께 하는 모습을 볼 수 있다. 제주 인심은 성게국에서 난다는 속담이 전해질 만큼 제주 성게국은 별미 중의 별미다. 성게는 바다의 호르몬이라는 별칭답게 풍부한 영양소는 물론, 제주 앞바다의 풍미를 가득 품고 있다. 애월읍에 위치한 ‘로드129’에서는 성게알이 듬뿍 들어간 성게크림파스타를 맛볼 수 있다. 서광리 ‘서광춘희’의 성게라면은 해산물을 베이스로 끓인 시원한 국물과 생면발 맛이 일품이다. 성게의 새로운 변신이 궁금하다면 제주 미식기행을 떠나보자.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 베트남 5대 여행사와 관광객 유치 협약 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 베트남 5대 여행사와 관광객 유치 협약 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 베트남 5대 여행사와 관광객 유치 협약 송고시간2018-05-14 11:24 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 비엣젯항공 내년 제주 직항 정기편 운항 추진 (제주=연합뉴스) 김호천 기자 = 베트남 인센티브 단체 관광객을 제주도에 유치하는데 청신호가 켜졌다. 제주도는 베트남 5대 여행사와 '베트남 관광객 유치 다자간 업무협약(MOU)'을 체결했다고 14일 밝혔다. 베트남 5대 여행사와 제주 관광 협약 (제주=연합뉴스) 김호천 기자 = 제주도 양기철 관광국장(가운데)이 지난 10일 베트남 호찌민의 한 호텔에서 베트남 5대 여행사 대표들과 관광객 제주 유치 업무협약을 체결하고 나서 기념촬영을 하고 있다. 2018.5.14 [제주도 제공 연합뉴스] 지난 10일 호찌민 쉐라톤 사이공호텔에서 열린 협약식에는 현지 대규모 여행사들인 비엣트레블, 사이공 투어리스트, 티에스티 투어리스트, 트랜스비엣 트래블, 벤탄 투어리스트가 참가했다. 광고 도는 협약식과 더불어 제주관광공사, 제주컨벤션뷰로, 한국관광공사 하노이지사와 함께 현지 여행사, 항공사, 언론사 관계자 100여 명을 대상으로 제주관광설명회를 진행했다. 또 국영 베트남항공의 자회사 젯스타 퍼시픽과 민영 비엣젯항공 등 2개 항공사와는 전세기 운항 활성화를 협의했다. 지난해 제주 직항 전세기를 처음 운항한 젯스타 퍼시픽은 호찌민서 16회, 하노이서 1회 전세기를 운항했다. 2014년 제주 노선 전세기 운항을 시작한 비엣젯항공은 지난해 하노이서 5회, 호찌민서 1회 전세기를 운항했다. 비엣젯항공은 특히 내년 2월부터 8월까지 호찌민과 하노이에서 제주로 각각 주 2회씩 정기편 운항을 추진하고 있어 성사되면 베트남 관광객 유치에 큰 도움이 될 전망이다. 도는 2016년 11월 하노이에 마련한 제주관광홍보사무소를 활용해 적극적인 관광 홍보 마케팅을 펼칠 계획이다. 연도별 베트남 관광객 수는 2015년 3천699명, 2016년 4천751명, 2017년 4천767명이다. 양기철 도 관광국장은 "베트남은 빠른 경제성장과 더불어 해외여행 인구가 급속하게 증가하는 국가"라며 "천혜의 자연경관으로 유네스코 3관을 획득한 제주는 인센티브 관광객뿐만 아니라 개별 관광객에게도 최적의 관광 목적지가 될 것"이라고 설명했다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2018/05/14 11:24 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 21 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문 관광과 흑돼지 맛집에서 즐기는 식도락 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문 관광과 흑돼지 맛집에서 즐기는 식도락 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 서귀포 중문 관광과 흑돼지 맛집에서 즐기는 식도락 기자명 이수호 기자 승인 2018.05.24 17:10 댓글 0 조회수 : 2349 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 우리나라 최남단에 위치한 섬 제주도는 맑은 하늘과 푸른 바다, 특산음식으로 즐기는 식도락과 다양한 관광요소를 갖추고 있어 여행객들에게 언제나 사랑받는 대한민국 대표 관광 섬이다. 특히 ‘중문관광단지’는 세계적으로도 인정받는 종합휴양위락단지로 특유의 자연경관과 함께 다수의 고급 호텔, 박물관과 동식물원 등 많은 볼거리와 편안한 숙박시설을 제공한다. 제주도는 발길이 닿는 곳마다 아름답지만 다채로운 제주도 여행을 원한다면 중문만한 곳도 없다. 중문에는 돌고래쇼를 볼 수 있는 ‘퍼시픽랜드’와 1700여 가지의 나무와 식물을 관찰할 수 있는 ‘여미지식물원’, 그 외 ‘테디베어뮤지엄’과 ‘초콜릿박물관’ 등 다양한 주제의 관광지와 웅장한 모습으로 깊은 인상을 남겨주는 ‘대포동 주상절리대’, 3단폭포 ‘천제연폭포’까지, 다채롭게 여행을 즐길 수 있다.‘백문이불여일견’, 충분히 보고 사진으로 담으며 관광을 즐겼다면 다음은 ‘백문이불여일식’, 제주도 특산음식으로 즐기는 식도락이다. 서귀포 중문 흑돼지 맛집으로 입소문이 자자한 ‘돈가득’은 복분자를 뿌린 흑돼지로 이름을 알린 중문 맛집이다. 품질 좋은 참숯에 흑돼지를 굽는데, 굽기 직전 복분자를 뿌려주어 잡내를 없애고 잘 구워진 흑돼지는 고소한 멜젓에 찍어 먹거나 이곳의 특제양파절임과 함께 먹으면 깔끔한 그 맛이 일품이다. 참숯에 구워 훈연의 향뿐 아니라 복분자의 달달한 향까지 독보적인 맛 자랑하는 흑돼지 덕분에 ‘돈가득’은 관광객뿐 아니라 현지주민들에게도 좋은 반응을 얻으면서 MBC에브리원 ‘맛있을 지도’에 제주도 흑돼지 맛집으로 소개된바 있다. MC 개그맨 김경식과 일본여자연예인 사유리의 입맛을 사로잡으며 푸짐한 먹방을 완성했다는 후문. 흑돼지 메뉴 외에 점심특선메뉴인 전복이 듬뿍 들어간 ‘흑돼지불고기전골’도 별미 중에 별미다. 예약 및 문의 가능. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 '돈이랑', 여름철 맛보는 흑돼지 연탄구이 &lt; 여행/레저 &lt; 라이프/문화 &lt; 기사본문 - 일요서울i 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체서비스 UPDATE. 2022-10-11 12:36 (화) LOG IN SIGN IN facebook twitter kakaostory 특종/단독 뉴스 정치 경제 사회 팩트체크 오피니언/칼럼 우종철의 일요논단 이경립 편집위원 정용석의 서울시평 홍준철의 여의도 안테나 홍준일의 펀치펀치 탈원전 릴레이팩트체크 권태윤의 생각창고 여의도 보좌진 칼럼 서민의 곡소리 박동규의 정론직필 강창호의 친원전 팩트체크 김형배의 글로벌 비즈니스 인사이트 로엘법무법인 기업포커스 지자체 서울권 수도권 경기 북부권 인천권 강원권 부산광역권 대구권 울산권 호남권 경북권 전북권 대전 · 세종권 충북권 제주권 장휘경의 지방 돋보기 1기 독자위원회 일요서울TV 포토 연재 주간운세 생활속 법률 톡톡 핵심 노무관리 연재소설 삼불망(三不忘) EVE의 스캔들 정두현 기자의 '굿모닝 아메리카' 정치 추리소설 '악녀시대' '추리퀴즈'-당신의 추리력은 잊혀진 영웅 적폐공화국 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 맛집 '돈이랑', 여름철 맛보는 흑돼지 연탄구이 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프/문화 여행/레저 제주도 중문관광단지 맛집 '돈이랑', 여름철 맛보는 흑돼지 연탄구이 기자명 오두환 기자 입력 2018.05.25 17:41 수정 2018.05.25 18:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [일요서울 | 오두환 기자] 6월을 앞두고 초여름이라고 해도 과언이 아닐 정도로 햇볕이 뜨겁다. 부산 해운대에는 벌써 피서객 인파가 몰리고 있고, 제주도 바닷가 전역에도 많은 사람들이 즐겨 찾고 있다. 여름철 여행하면 떠오르는 곳이 바로 제주도 바닷가다. 최근 여행 트랜드는 관광명소는 기본, 맛집을 곁들인 여행이다. 제주도 하면 떠오르는 것은 싱싱한 해산물과 제주도에서만 본연의 맛을 느낄 수 있는 흑돼지 요리다. 제주도에서 가장 인기있는 여름철 여행지는 제주도 중문관광단지다. 중문관광단지 대포항의 주상절리대는 웅장한 해안 절벽과 함께 바다가 조화롭게 어울려 관광객들로 붐빈다. 제주도 서귀포 중문관광단지에는 맛집도 많다. 특히 제주도에서만 맛볼 수 있는 흑돼지 요리를 맛볼수 있는 곳이 많아 관광객들의 발길을 이끌고 있다. 중문관광단지 입구에 위치한 흑돼지 전문 ‘돈이랑’ 관계자는 “본 매장을 찾는 관광객들의 경우 남녀노소 나이를 불문하고 이삼오오 짝을 이루거나 나홀로 여행속에 맛집 탐방을 즐기는 분위기"라며 "과거 수려한 자연경관을 찾는 여행에서 특정 지역에서만 맛볼 수 있는 요리를 찾아 떠나는 여행이 늘고 있는 것 같다”고 말했다. 또 “이러한 흐름에 맞춰 돈이랑에서만 맛볼 수 있는 특색 있는 메뉴 알리기에 노력하고 있다”고 전했다. 돈이랑은 국내에서는 처음으로 흑돼지 청정사육단계 HACCP 인증을 획득하고 무항생제 명품 흑돼지로 국내 유명백화점에 납품을 진행하고 있다. 지하 180미터에서 퍼올린 미네랄의 보고 화산암반수로 사육해 위생적이고 미네랄이 풍부한 제주흑돼지를 두툼한 두께로 제공해 눈길을 끌고 있다. 특히 흑돼지 연탄불 구이는 겉은 바삭하고 속은 부드러운 특유의 맛이 특징으로 알려져 인기다. 돈이랑에서는 관광객들을 위해 밤 12시까지 영업하며 무료픽업 서비스를 제공하고 있다. 주말을 이용해 대포항 주상절리대의 웅장한 해안절벽을 감상한 뒤 선선한 바닷 바람과 야경 속에서 제주도에서만 맛볼 수 있는 흑돼지 연탄구이 요리를 맛보는 여행을 떠나보는 건 어떨까. 오두환 기자 odh@ilyoseoul.co.kr 다른기사 보기 저작권자 © 일요서울i 무단전재 및 재배포 금지 당신만 안 본 뉴스 [서민의 곡(哭)소리] 윤석열차 논란 [단독] 문재인표 ‘새만금 수상태양광 사업’ 첫 삽도 못 뜬 내막 철거민 운동가의 폭로…“대장동 비리 뒤에 ‘성남아수라’ 있다” [특별기획] 경기도, '지금 이 순간, 바로 여기'...경기도의 가을 축제를 소개하다 [특별기획] '파주인삼이 개성인삼' 축제 개막…고려인삼 명맥 잇는다! [단독] ‘박물관이 진짜 사라졌다’…지워진 레고랜드의 약속 [일요서울 포토] 이세희, '예쁨예쁨한 입장' [서민의 곡(哭)소리] 윤석열차 논란 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 경복대학교 대학일자리센터, '찾아가는 국민취업지원제도 설명회' 개최 오산시의회, 제272회 제1차 정례회 개회 성남시의회, 제275회 제1차 정례회 개회 경기국제공항 유치 시민협의회, ‘경기국제공항’ 홍보 부스 운영 [로엘 법무법인 백서준 변호사] 학교폭력심의위원회, 변호사로부터 어떤 도움을 받을 수 있나? [2022 국정감사-국방위] 임병헌 의원, "방위사업청, 북한 눈치 보느라 방산수출통계 내내 미발표" 최신뉴스 경복대학교 대학일자리센터, '찾아가는 국민취업지원제도 설명회' 개최 오산시의회, 제272회 제1차 정례회 개회 성남시의회, 제275회 제1차 정례회 개회 경기국제공항 유치 시민협의회, ‘경기국제공항’ 홍보 부스 운영 [로엘 법무법인 백서준 변호사] 학교폭력심의위원회, 변호사로부터 어떤 도움을 받을 수 있나? 포토뉴스 [포토] 서울시, '송현동 부지' 한 세기 만에 시민 품…7일부터 임시개방 [2022국감ㆍ포토뉴스] 분주히 움직이는 피감기관 공무원들 국회-농협중앙회, 추석맞이 농축산물 행복 大장터 개최 [현장] 포스코플랜텍 소액주주 외침 “대통령은 최정우 구속하라” 인기뉴스 1 [서민의 곡(哭)소리] 윤석열차 논란 2 [단독] 문재인표 ‘새만금 수상태양광 사업’ 첫 삽도 못 뜬 내막 3 철거민 운동가의 폭로…“대장동 비리 뒤에 ‘성남아수라’ 있다” 4 [특별기획] 경기도, '지금 이 순간, 바로 여기'...경기도의 가을 축제를 소개하다 5 [특별기획] '파주인삼이 개성인삼' 축제 개막…고려인삼 명맥 잇는다! 6 [단독] ‘박물관이 진짜 사라졌다’…지워진 레고랜드의 약속 7 [일요서울 포토] 이세희, '예쁨예쁨한 입장' 8 [일요서울 포토] 블랙핑크 지수, 까르띠에 단상으로 '후~욱' 하단영역 Copyright © 2022 일요서울i. All rights reserved. facebook twitter kakaostory 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울시 중구 퇴계로 286 쌍림빌딩 6F 일요서울신문사 대표전화 : 02-720-8700 팩스 : 02-735-1005 제호 : 일요서울i 등록일 및 발행일 : 2006-09-13 대표이사·회장 : 고재구 편집국장·편집인 : 홍준철 상무 : 정구현 청소년보호책임자 : 고정현 일요서울i 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. 위로 전체메뉴 전체기사 정치 전체 정치일반 국회/정당 청와대 북한/국제사회 주간X파일 21대총선열전 일정/부고 사회 전체 사회일반 사건/사고 해외토픽 그래픽뉴스 세태/르포 일정/부고 수도 서울 탐방기 명소 장인을 찾아서 1020 진로 멘토링 5060 노후 안정 프로젝트 경제 전체 재계 산업 정책/공공기관 금융/블록체인 일정/부고 보도자료 연예 전체 연예일반 방송/영화 해외연예 스포츠 전체 국내스포츠 해외스포츠 일요서울TV 전체 보도국 시사교양국 오피니언/피플 전체 고재구의 세상보기 우종철의 일요논단 이경립 편집위원 정용석의 서울시평 장성훈의 언플러그드 홍준철의 여의도 안테나 홍준일의 펀치펀치 인터뷰/인물탐구 24시 성범죄 케어센터 탈원전 릴레이팩트체크 권태윤의 생각창고 6.1 지방선거 출마합니다 김형배의 글로벌 비즈니스 인사이트 여의도 보좌진 칼럼 서민의 곡소리 1기 독자위원회 박동규의 정론직필 로엘법무법인 강창호의 친원전 팩트체크 김형배의 글로벌 비즈니스 인사이트 일요칼럼 전체 김대진의 여론세상 김인혜의 커피 한잔 신용한의 ‘시사딱밤’ 엄경영 칼럼 장덕수의 논담전선(論談戰線) 장성철 칼럼 기사이동 삭제예정 이경립 편집위원 기사이동 삭제예정 홍준철의 여의도 안테나 기사이동 삭제예정 홍준일의 펀치펀치 라이프/문화 전체 이창환 기자의 카'스토리 대박창업 생활/건강 여행/레저 문화/전시/공연 일정 게임 소설 김경수의 잘나가는 스타트업 포토 전체 포토뉴스 연예포토 주간브리핑 연재 전체 일일운세 주간운세 생활속 법률 톡톡 핵심 노무관리 연재소설 삼불망(三不忘) EVE의 스캔들 정두현 기자의 '굿모닝 아메리카' 정치 추리소설 '악녀시대' '추리퀴즈'-당신의 추리력은 잊혀진 영웅 적폐공화국 상용차/물류 · 에너지 전체 종합 화물/특장차 버스/승합차 부품/정비 물류/운송 에너지 피플/기업탐방 포토/동영상 지자체 전체 서울권 수도권 경기 북부권 인천권 강원권 부산광역권 대구권 울산권 호남권 경북권 전북권 대전 · 세종권 충북권 제주권 장휘경의 지방 돋보기 기업포커스 전체 삼성 현대차 SK LG 롯데 한화 CJ 효성 지난연재 전체 종료작보기 취업 인터넷패러디 포토유머 명리풍수 실용풍수 해외화제 정용석교수 윤은기총장 최종문학장 공병호소장 김의식교수 김현욱이사장 이성규교수 건강-건강 건강-의학칼럼 재미-독자사주풀이 재미-퍼즐스도쿠 재미-불타는유머 이성무의 커피 한잔 그때그사건 톡톡 터지는 SDA 영어 술술 열리는 SDA 일본어 하루 한마디 SDA 중국어 시사만필 여풍당당 여성시대 탐방/지금 만나러 갑니다 영어세상풍자 혁신경영대상 전체 제1회 2015년도 제2회 2016년도 제3회 2017년도 기타 전체 창간 23주년 축하 메세지 미리보는 도자기 소장전 경남 전체 창원/김해/양산 진주/통영/거제 사천/고성/함안 산청/함양/거창 하동/남해/밀양 의령/합천/창녕 경남동영상뉴스 Advertorial 특종/단독 비즈컴 2020 국감 일요서울 PiCK 2021 국감 28주년 창간 축사 2022 국감 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광안내사 역량강화교육 수강생 모집 주메뉴 바로가기 본문 바로가기 2022.10.07 (금) 카카오채널 RSS 모바일보기 흐림서울 15.0℃ 비제주 17.6℃ 흐림고산 16.8℃ 흐림성산 16.2℃ 비서귀포 16.8℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 인사·동정 홈 인사·동정 제주도, 관광안내사 역량강화교육 수강생 모집 선명애 sma2824@daum.net 등록 2018.05.21 10:07:23 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 도내 관광안내사의 전문성 강화 및 제주관광 안내서비스 만족도 증대를 위한 역량강화 교육이 본격 진행된다. 제주도와 제주관광공사는 오는 5월 31일부터 6월 22일까지 매주 목요일과 금요일에 걸쳐 진행되는 『관광안내사 역량강화 기본과정』의 교육생을 모집한다고 밝혔다.제주관광공사는 자체 관광교육 프로그램인 J-Academy의 관광안내사 역량강화 교육 과정을 통해 지난해 1,040명의 도내 관광안내사 수강생을 배출한바 있다. 특히 지난해부터 중국내 한국관광 금지에 따른 제주관광 위기 극복을 위해 실시된 관광안내사 역량강화 심화교육은 다양한 주제의 이론 및 현장강의로 관광안내사들의 높은 호응을 얻었다.2018년 관광안내사 역량강화 과정은 기본과정, 심화과정, 프리미엄과정의 연간 정규 커리큘럼으로 운영되며, 도내 관광안내사가 수준별 제주관광 안내 교육서비스를 받을 수 있도록 지원한다. 특히 이번 교육은 관광안내사의 안전사고 대응능력을 향상시키고 안전한 제주관광 문화를 조성하기 위해 관광객 응급처치·안전관리 교육 프로그램도 함께 운영된다.이에 대해 제주관광공사 관계자는 “타 국가의 경우 자격증 갱신제 및 등급제 운영을 통해 가이드의 전문성 유지 등 사후관리를 하는 반면 국내 관광통역안내사는 충분한 보수교육 체계가 없어 그간 어려움을 겪어왔다”며, “이번 교육이 관광안내사의 전문성 강화와 질 높은 안내서비스 제공을 위한 바른 길잡이가 됐으면 좋겠다”고 전했다.교육신청은 5월 17일부터 5월 27일까지 선착순으로 접수하면 된다. 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 제주 오션갤러리, 시행사 보유분 특별분양 4 제주시, 10월 시정시책공유 간부회의 개최 5 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 6 [TW포토] 2022 제주레저힐링축제 새별오름 공연 7 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 8 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 9 제주시 동부보건소, 청소년 대상 코로나우울·스마트폰 중독 예방 홍보관 운영 10 서귀포시, 코로나19 취약(소농) 전업농가 영농경영비 신청기간 연장 실시간 뉴스 2022-10-06_THU 현지홍 의원, 제주도 해양자치권 수호해야!!! 19:31 제주도의회, 지방세 체납징수 관리 요구 19:30 도민 규제, 법과 원칙 토대 위에서 신중히 추진해야 !! 19:29 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 19:25 제주도, 숨어있는 아동학대 찾는다…만 3세 아동 전수조사 19:23 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 06일 20시 20분 최상단으로</t>
+  </si>
+  <si>
+    <t>[Oh!쎈리뷰] '살림남2' 민우혁, 할머니에 제주도 효도관광 "첫 비행" - OSEN [Oh!쎈리뷰] '살림남2' 민우혁, 할머니에 제주도 효도관광 "첫 비행" [Oh!쎈리뷰] '살림남2' 민우혁, 할머니에... [OSEN=이지영 기자] 민우혁이 할머니에게 제주도 여행을 선물했다.16일 방송된 KBS '살림하는 남자들2'에서는 민우혁 할머니가 제주도에 가고 싶어하는 모습이 담겼다. 민우혁은 얼마전 할머니에게 "비행기 태워줄게"라고 했고, 할머니는 내심 기대하고 있었다.어느날 할머니는 옷을 사들고 와서 "제주도 갈 때 입을려고 샀다"고 말했다. 이어 할머니는 며느리 옷도 내밀며 "이건 네 엄마 옷"이라고 말했다. 민우혁은 웃으며 엄마에게 그 옷을 보여줬고, "할머니가 제주도 가고 싶은 가봐"라고 했다.며칠 뒤 민우혁 식구들은 제주도로 향했다. 할머니는 생애 처음 타는 비행기에 설레어 했다. 공항 규모에 "크다"고 말했다.할머니는 비행기가 뜨자 "지금 가고 있는 거냐"며 "이렇게 무거운데 뜬다"고 신기했다. 할머니는 "85년만에 비행기 처음 탄다. 기대된다"고 말했다./ bonbon@osen.co.kr[사진] '살림하는 남자들2' 캡처 [Copyright © OSEN 무단전재 및 재배포 금지] [OSEN 페이스북에서 무엇이든 물어보세요 클릭!!!] 2018-05-16 21:05 서울시 마포구 합정동 377-14 (양화진 4길 33-5) SB빌딩 4층 등록번호: 서울,아 001114 | 창립: 2004년 9월 13일 | 창간: 2004년 9월 23일 발행인: 김영민 | 편집인: 조남제 | 청소년보호책임자: 김영민 | 고충처리인: 강희수 전화번호: 02-514-6257 Copyright © OSEN. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 융자금 상환 1년 유예 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 관광진흥기금 융자금 상환 1년 유예 (제주=뉴스1) 고동명 기자					| 2018-05-04 10:14 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도청 전경.© News1 제주도는 사드 여파로 어려움을 겪는 도내 관광업계의 경영 안정화를 위해 관광진흥기금 융자금 상환을 최대 1년간 유예한다고 4일 밝혔다.지원대상은 거치기간 종료 후 원금상환 중이거나 거치기간이 1년미만 남은 업체 중 2017년 매출액이 2014~2016년 평균 매출액보다 감소한 업체다. 공고일기준 거치기간이 1년이상 남은 경우는 지원대상에서 제외한다.유예 신청기간은 8일부터 31일까지다. 금융기관의 심사를 거쳐 6월15일까지 유예 여부를 결정한다.도는 "이번 융자금 상환 유예 지원으로 지역 관광업계가 어려움을 극북하는 기회가 되길 바란다"고 밝혔다. kdm@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 일본 골프 관광객 유치 시동 &lt; 실시간뉴스 &lt; 정치/행정 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 11:33 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 일본 골프 관광객 유치 시동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치/행정 실시간뉴스 제주도, 일본 골프 관광객 유치 시동 기자명 박민호 기자 입력 2018.05.17 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도가 골프 파라다이스제주 명성을 되찾기 위해 일본에서 관광협회, 골프업계 등과 공동으로 마케팅을 추진한다고 17일 밝혔다.제주도는 이날부터 오는 20일까지 오사카 간사이공항에서 개최되는 일본국제여행박람회에 참가할 계획이다. 이번 방문에는 도내 4개 업체(골프장 2, 여행업체 2)를 선발, 현지에서 골프전문 여행업체와 비즈니스 세일즈 마케팅을 펼치도록 했다. 도와 관광협회는 홍보부스를 개설해 박람회 참가자들을 대상으로 이벤트 및 기념품 제공, 안내책자 배부 등 홍보활동을 벌일 계획이다.이번 해외마케팅을 통해 10월 개최 예정인 PGA 정규투어(CJ 나인브릿지 골프대회)에 앞서 소비규모가 큰 일본골프관광객과 내국인을 대상으로 국제아마추어골프대회를 개최해 우수선수에 대해서는 PGA 골프대회 초대입장권을 시상품으로 배부 하는 등 추가 이벤트도 진행해 나갈 계획이다.김홍두 문화체육대외협력국장은 “올해부터 제주도 회원제 골프장에 대한 개별소비세 부과가 내장객 감소로 이어지는 것을 막기 위해 다각적이고 공격적인 골프마케팅 활동을 추진할 계획”이라며 “이와 함께 각종 프로 및 아마추어 골프대회 개최를 통해 골프관광이 지역경제 활성화로 이어질 수 있도록 노력하겠다”고 말했다. 박민호 기자 mino7791@naver.com 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 전기료 인상에 광어 업계 속 타는데 제주어류양식수협은 ‘수수방관’ 포토뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 4 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, '어업·관광·레저' 다기능 어항 개발 추진 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, '어업·관광·레저' 다기능 어항 개발 추진 (제주=뉴스1) 오미란 기자					| 2018-05-06 09:23 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도 지방어항 개발사업 위치도.© News1 제주도는 어선 감척, 기후 변화, FTA 등 수산업 여건 변화에 체계적으로 대응하기 위해 지방어항 개발사업에 본격 착수한다고 6일 밝혔다.총 사업비 73억2500만원이 투입되는 이번 사업은 도내 11개(고산·신창·하귀1리·조천·세화·우도·가파·사계·태흥2리·표선·신천) 어항의 기능을 보강하는 방향으로 추진된다.신창항과 고산항, 세화항, 우도항, 태흥2리항 등 5개 어항에서는 항내 퇴적물과 암반을 제거하는 준설사업과 관광편의시설 조성사업이 진행될 예정이다.월파 피해가 빈번한 하귀1리항과 사계항, 가파항, 조천항, 표선항, 신천항 등 6개 어항에서는 방파제, 물양장, 호안 등 어항 기본시설에 대한 보수·보강사업이 추진된다.도는 향후 지방어항을 관광지와 연계 개발하는 한편, 경제적 파급효과가 클 것으로 예상되는 지역을 어업·관광·레저 등 다양한 기능을 수행하는 특화어항으로 개발해 나간다는 계획이다.김창선 도 해양수산국장은 "지방어항이 지역주민들의 실질적인 소득 향상과 지역경제 활성화를 이끌어갈 수 있도록 최선을 다하겠다"고 밝혔다. mro1225@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도관광협회, "칭찬합시다" 이달의 Best 관광인...장수영 씨 선정 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, "칭찬합시다" 이달의 Best 관광인...장수영 씨 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, "칭찬합시다" 이달의 Best 관광인...장수영 씨 선정 기자명 고병수 기자 입력 2018.05.12 17:53 수정 2018.05.12 18:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회(회장 김영진)는 10일 제주웰컴센터 3층 대회의실에서 “칭찬합시다” 이달의 베스트 관광인으로 태백산(본점) 장수영 씨를 선정하고 선정패와 친절 키움 꽃 화분을 전달했다고 11일 밝혔다.태백산(본점) 장수영 부장은 한결같은 친절서비스 정신으로 제주를 방문하는 내․외국인 관광객들에게 감동을 제공하고 고객의 만족도 향상에 노력하는 모습이 주변 동종업계 종사자들로부터 모범이 되고 있기에 이번 best 관광인으로 선정됐다. 관계자는 “앞으로도 제주관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정, 수범 사례를 공유하고 이를 계기로  제주관광 종사자들의 친절 및 서비스 마인드를 한 단계 높여나간다”며 “또한 관광으로 만들어 가는 희망찬 제주 만들기에 앞장서 나갈 것”이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 “제주도에도 관광 2층버스가 있다면서?” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 “제주도에도 관광 2층버스가 있다면서?” 김형훈 기자 승인 2018.05.02 15:44 댓글 1 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주도관광협회, 5월 3일부터 2층 시티버스 운행 ​​​​​​​JDC, 도심관광 활성화 차원에서 도관광협회에 기증 [미디어제주 김형훈 기자] 제주에 2층 버스가 도입됐다. 제주도관광협회와 제주국제자유도시개발센터(JDC)는 2일 제주시티투어 2층버스 인도식을 가졌다. JDC는 변화하는 제주 관광수요에 대응하고 도심관광 활성화를 위해 도관광협회에서 운영하는 제주시티투어사업에 고급형 2층버스 1대를 제공했다. 2층버스는 제주에 처음으로 도입되는 모델이다. 주차를 돕는 시스템이 갖춰져 있고, 앞차량과의 속도와 거리도 감지하는 장치도 있다. 제주시티투어 2층버스는 5월 3일부터 본격적으로 운행 한다. 차량 외관은 청정 제주바다를 상징하는 청색을 바탕으로 제주도 및 코스 주변 관광 명소 등을 형상화한 이미지 디자인 요소를 삽입했다. 개별 관광객 및 관광약자를 위한 편의 시설도 대폭 강화됐다. 좌석별 USB 충전포트를 별도로 마련했고, 장애인을 위한 휠체어 전용공간, 휠체어 경사로 및 고정장치도 있어 휠체어 탑승이 가능하다. 2층버스의 총 좌석 수는 휠체어 1대를 포함해 63명(1층 10석, 2층 53석)이다. 운행코스는 제주국제공항을 시작으로 민속자연사박물관, 사라봉, 동문시장, 관덕정, 탑동광장, 어영해안도로, 도두봉, 이호해수욕장, 제주시민속오일시장, 한라수목원 등 도심권 재래시장 및 주요 관광명소 등을 경유한다. 이용요금은 성인 기준으로 1일권 1만2000원, 1회권 3000원이다. 운행시간은 오전 9시부터 오후7시까지 총 9회 운행한다. 제주도관광협회는 2층버스 도입을 기념, 반값 할인 프로모션을 진행한다. 5월 13일까지 제주시티투어 온라인 전용 판매처인 탐나오 온라인 (www.tamnao.com)에서 1일권 기준 1600명 한정으로 6000원에 판매된다. 더욱 자세한 정보는 제주시티투어 안내 전화(☎ 064-741-8784~5) 또는 제주시티투어 홈페이지(jejucitybus.com)에서 확인할 수 있다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 1 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 기증한 JDC는 좋은데 관리가 2018-05-03 09:38:11 더보기 삭제하기 JDC가 제주를 위해 좋은 버스를 제공해주는데 과연 관광협회가 어떻게 소화할지 모르겠네요 ㅠㅠ 황금버스도 10억원 넘게 혈세만 낭비하고 종첬는데 ㅎㅎㅎ 답글쓰기 2 1 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 4월 베스트 관광인에 장수영 부장 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 4월 베스트 관광인에 장수영 부장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회 4월 베스트 관광인에 장수영 부장 기자명 이동건 기자					(dg@jejusori.net) 입력 2018.05.11 18:20 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도관광협회는 4월 베스트 관광인으로 태백산(본점) 장수영 부장을 선정했다고 11일 밝혔다. 장 부장은 한결같은 친절한 서비스로 제주 외식업 이미지 향상에 노력한 공로를 인정받았다. 또 철저한 시설 관리와 청결함 유지 등 동종업계 모범이 된다는 평을 받았다. 관광협회는 친절 등 모범이 되는 제주 관광인을 매달 선정해 상을 수여하고 있다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 울산지역 축제 연계 제주관광 홍보마케팅 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 울산지역 축제 연계 제주관광 홍보마케팅 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도관광협회, 울산지역 축제 연계 제주관광 홍보마케팅 기자명 한지형 기자 입력 2018.05.11 16:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광협회(회장 김영진)는 10~13일 울산광역시에서 개최되는 '2018 태화강 봄꽃 대향연' 축제에 참가해 울산지역 관광객 및 영남권관광객 유치를 위한 제주관광 현장 홍보 활동을 전개하고 있다고 11일 밝혔다.도관광협회는 울산지역축제와 연계해 제주의 다양한 매력 및 인프라를 소개하는데 초점을 두고, 제주4·3 70주년 2018 제주방문의 해 및 제23회 제주관광마라톤축제, 제주시티투어 2층 버스 등 다양한 테마의 제주관광 상품을 홍보해 관광객들의 이목을 끌었다.또 축제에 참여하는 관광객 대상으로 온라인 제주여행종합쇼핑몰 구매채널에 대해 홍보하고 가족동반 어린이 관광객을 위한 모자 만들기 체험을 실시했다.도관광협회 관계자는 "앞으로 영남지역 잠재관광객 대상으로 고품격 제주관광 이미지를 부각 시킬 수 있는 홍보 마케팅 활동을 적극 전개할 계획"이라고 말했다. 한지형 기자 my-yoshi@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>중문관광단지 맛집, 색달식당 ‘오늘 아침 잡은 제주도 생갈치입니다' &lt; 뉴스 투데이 &lt; 라이프 &lt; 라운지 &lt; 기사본문 - 대한금융신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 신문사소개 구독신청 로그인 회원가입 전체메뉴 버튼 최종편집 2022-10-11 12:49 (화) 기사검색 검색 최신뉴스 ‘레고랜드 주관사’ BNK투자증권, 오늘 채권단 회의 개최 웰컴저축은행, 정기예금 금리 최고 4.45% 제공 한국투자證, 뱅키스 전용 ELS 50억 한도 모집 카뱅 임원진, 자사주 줄매입…“주주가치 제고” 케이뱅크 “아담대, 업계 최저금리로 받아보세요” 헤이딜러, 김혜수·한소희와 함께 새 캠페인 전개 “헤어지자, 두려움 없이” ETRI 주최·셀렉트스타 주관, 자율성장 인공지능 경진대회 성료 DGB금융그룹, 대한민국 교육기부 대상 수상 흥국생명, ‘숨은 내 보험금 찾아주기’ 캠페인 진행 리치앤코, 보험추천 시스템 개발 완료…"굿리치쇼 개최" 본문영역 이전 기사보기 다음 기사보기 중문관광단지 맛집, 색달식당 ‘오늘 아침 잡은 제주도 생갈치입니다' SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 라운지 라이프 뉴스 투데이 중문관광단지 맛집, 색달식당 ‘오늘 아침 잡은 제주도 생갈치입니다' 입력 2018.05.17 17:21 대한금융 온라인팀 jshily@kbanker.co.kr 다른기사 보기 SNS 기사보내기 SNS 기사보내기 다른 공유 찾기 바로가기 글씨크기조절 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 URL복사 닫기 중문관광단지 근처에 위치한 색달식당이 제주도를 찾는 관광객들 사이에서 화제다. 이는 맛과 더불어 비쥬얼과 편리함까지 잡았기 때문이다.현재 색달식당은 중문관광단지 내 픽업 서비스를 진행하고 있다. 또한 당일 아침에 잡은 제주도 생갈치를 사용함으로써 중문관광단지를 찾는 관광객들과 더불어 제주도에 거주하는 주민들에게까지도 맛집으로 불리고 있다.색달식당은 문어통갈치 스폐셜이 유명하다. 우선 문어통갈치조림은 딱새우, 전복, 제주도산 돌문어 등을 갈치와 함께 넣고 끓인 요리다. 스폐셜은 문어통갈치조림을 비롯해 고등어구이, 성게미역국, 돌솥밥 등으로 구성된 코스 요리다. 문어가 통으로 들어가 바다 내음을 물씬 느낄 수 있을뿐더러 특수 제작한 냄비에 담겨있어 싱그러운 바다 느낌을 입 속에서 느낄 수 있다고 색달식당을 찾은 한 관광객은 말했다.또 다른 관광객은 “평소 갈치를 좋아하는데, 제주도 은갈치는 중문관광단지에 와서 처음 먹어봤다”며 “갈치의 은빛과 문어의 분홍빛의 조화가 식욕을 자극한다”고 평했다.색달식당 주인은 “문어통갈치 스폐셜은 밑반찬으로 고등어구이와 성게미역국도 준비되는데, 어느게 메인요리인지 모를 정도로 전부 맛이 뛰어나다”고 자부했다. 이어 그는 “매일 아침에 잡은 갈치와 싱싱한 재료로 요리하기 때문에 맛은 물론 건강까지 잡았다”며 “중문관광단지에 오셨으면 색달식당을 꼭 찾아달라”고 말했다.​ 저작권자 © 대한금융신문 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 많이 본 기사 최근 한달 1 유사암 '납입면제' 신사협정 깨졌나…과열경쟁 여전 2 오늘이 제일 비싼 보험사 채권…투자자는 여유 3 ‘정상여신 0건’ 저축은행도…부동산 쏠림현상 심각 4 사라진 은행 특판, ‘가만있어도 배불러’ 5 [보험, 오해와 진실] “초고금리시대, 역성장과 계약자이탈 몰아칠 것” 6 한화생명 ‘혁신사업’ 구독보험 접는다 7 동양 이어 한화생명도 ‘4.5% 저축보험’ 내논다 8 금감원, SBI저축은행 작업대출 집중검사 착수 9 WCP 부진에…기업공개 시장도 먹구름 10 9개월 만에 1조원 더 굽은 보험사 허리 1 삼성화재 ‘위풍댕댕’, 3일만에 메리츠화재 판매량 넘었다 2 뒤늦게 드러난 리치앤코의 역린…MG손보 투자금 손상처리 3 [국감 예고편] 증권가 ‘공매도‧사모펀드‧불법대출’로 긴장 4 롯데카드 매각 부진?…이유 있는 M&amp;A 전략 5 환율 1400원 시나리오…한화생명 '웃고' 삼성생명 '울고' 6 [허점투성이 1200% 룰] ①보험사-GA의 밀월 “시책 900% 쏩니다” 7 저축은행, 자영업자 대출도 브레이크 걸리나 8 잇단 저축은행 금융사고…‘내 돈 괜찮나’ 불안감 증폭 9 한달새 2조 팔린 ‘4% 저축보험’, 은행만 노났다 10 '전속' 빗장 푼 한화생명 GA, 설계사 반년새 800명 ↑ 대한금융DB [대한금융DB] 4대 금융지주 주식 외국인 소진율 추이 [대한금융DB] 5대 시중은행 예적금 잔액 추이 [대한금융DB] 국내 진출한 중국계 은행 수익성 추이 라운지의 최신 기사 헤이딜러, 김혜수·한소희와 함께 새 캠페인 전개 “헤어지자, 두려움 없이” ETRI 주최·셀렉트스타 주관, 자율성장 인공지능 경진대회 성료 노바크(NOVAC), 베트남 총판계약 체결 ‘5천만 바이크 시장 공략 본격화’ 1000년을 살고도 건강한 괴산 ‘은행나무’ [응답하라, 우리술 269] 드라이와인의 명가 꿈꾸는 ‘율와이너리’ 에어맘 분유포트, 임산부의 날 맞아 쇼핑 라이브 생방송 진행 하단영역 하단메뉴 신문사소개 고객센터 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 매체정보 서울특별시 영등포구 신길로 220 양우빌딩 202호 대표전화 : 02-783-2583 팩스 : 02-783-2586 청소년보호책임자 : 조성준 법인명 : (주)일간금융 제호 : 대한금융신문 등록번호 : 서울 아 03062 등록일 : 2014-03-24 발행일 : 1995-10-17 발행·편집인 : 조성준 대한금융신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 대한금융신문. All rights reserved. mail to webmaster@kbanker.co.kr 위로 전체메뉴 전체기사 정책 금융 전체 은행 증권 보험 2금융 카드 부동산 금융 100세 금융 해외금융 핀테크·IT 오피니언 전체 기고 기자수첩 금융인 대한금융DB 전체 은행 증권 보험 2금융 카드 자동차보험 라운지 전체 문화탐방 라이프 인사동정 전체 인사 부고 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>예산군, 재가어르신과 행복플러스 제주도 효도관광 진행 즐겨찾기추가 | 中文| 日文| English| 기사제보| 자본시장 산업 부동산 중기벤처 정치사회 오피니언 아하!그렇군요 지역 AI 뉴스룸 금융 | 증권 | 재테크 | 경제 | 일반 | 전체 | 자동차/운송 | 자동차소식 | 중화학 | 전자통신 | 인터넷 | 생활 | 건강 | 교육 | 일반 | 전체 | 정책 | 분양 | 재테크 | 기업 | 일반 | 전체 | 기업탐방 | 컨택센터 | 업계교육소식 | 협단체뉴스 | 중기벤처일반 | 전체 | 정치 | 사회 | 인사/부음/동정 | 전체 | 기자수첩 | 칼럼 | 기고 | 전체 | 기업심층해부 | 여의도25시 | 탐사보도 | 아하!그렇군요 | 생활경제 해피포인트 | 인사이드컷 | 노병우의 카수다 | 전체 | 정치 | 사회 | 경제 | 문화 | 칼럼기자수첩 | 엔터테인먼트 | 포토뉴스 | 공지 | 전체 | 글자크기 예산군, 재가어르신과 행복플러스 제주도 효도관광 진행 오영태 기자 | gptjd00@hanmail.net | 2018.05.05 09:53:33 [프라임경제] 충남 예산군노인종합복지관(관장 육통스님)이 어버이날을 맞아 재가 어르신과 함께 떠나는 행복플러스 제주효도관광 나들이를 지난 4월24일~26일 2박3일간 진행했다. 어르신 10명과 종사자도 함께 어르신들의 안전을 위해 2:1 맞춤형 서비스를 제공해 행복하고 신나게 제주도에 다녀왔다.예산군노인종합복지관(관장 육통스님)이 어버이날을 맞이하여 재가 어르신과 함께 떠나는 행복플러스 제주효도관광 나들이에서 기념촬영을 하고 있다. ⓒ 예산군청어르신들은 여행을 간다는 설레는 마음으로 군산공항에서 제주도로 출발했다. 첫날, 선녀와나무꾼(옛 추억의 테마파크)을 방문하여 옛 추억을 회상하며 즐거운 시간을 보내고, 둘째날, 애월한담해안로, 여미지 식물원, 주상절리에서 아름다운 경치를 감상했다. 마지막 날에는 에코랜드 기차여행을 떠난 후, 여행의 피로를 풀기 위해 족욕마사지를 체험하며 제주도 2박3일 여행을 알차게 진행했다.재가 어르신들은 "생전 처음 가는 제주도 여행에 다음에 또 갈 수 있을까 하는 아쉬움으로 한편으로 마음이 아프지만, 추억 가득한 시간이었고 함께해서 행복한 시간이었다"고 말했다.육통관장스님은 "어르신들의 제주도 효도관광은 경제적, 환경적 어려움으로 자립적인 나들이가 어려운 분들을 위한 행사라 어르신들의 욕구 해소와 삶의 활력을 충전할 수 있는 좋은 기회가 되었으며, 앞으로도 재가 어르신의 행복과 복지 증진을 위해 노력하겠다"고 약속했다. 오영태 기자 gptjd00@hanmail.net 오영태 기자의 전체기사 보기 이 기사를 공유해보세요 ⓒ 프라임경제(http://www.newsprime.co.kr) 무단전재 및 재배포금지 많이 본 뉴스 여의도 25시 여야 외교부장관 경질 논란… 어대명 기류 인한 강대강 우려 속 민… [여의도 25시] 졸속 입학연령 하… 국민의힘 내 비대위 전환 움직임, 최… 경찰국 신설, 경찰회의 이후 여야 갈… 대통령실 사적채용 논란, 스노우볼… HR 봐주기 or 안전 불감증…SK하… 박우량 신안군수의 ‘진짜 신안’… + 더보기 인사이드컷 [포토] "포항 구룡포 오징어가 풍년일세" … + 더보기 회사소개| 광고/제휴문의| 찾아오시는길| 이용약관| 개인정보취급방침| 이메일 무단수집거부| 청소년보호정책| 독자권익위원회| 고객센터 (우) 07333 서울시 영등포구 여의대방로67길 9 (여의도동 44-33) 두일빌딩3층 | Tel : 02-761-6114 | Fax : 02-761-6163 상호명 : (주)프라임경제 (제호:프라임경제) | 발행인 : 이종엽 | 편집인 : 이 호 | 청소년보호관리책임자 : 정호수 인터넷신문 등록 No.서울,아00487(등록일:2008년01월04일) Copyright ⓒ 2005 프라임경제 All rights reserved. 모바일 보기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문 관광과 흑돼지 맛집 ‘돈가득’에서 즐기는 싱그러운 봄 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:40 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문 관광과 흑돼지 맛집 ‘돈가득’에서 즐기는 싱그러운 봄 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 서귀포 중문 관광과 흑돼지 맛집 ‘돈가득’에서 즐기는 싱그러운 봄 기자명 이수호 기자 승인 2018.05.03 16:43 댓글 0 조회수 : 2322 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 변덕스러운 날씨지만 역시 완연한 봄이다. 파란 하늘과 따뜻한 날씨, 투명한 바다와 꽃과 나무가 있는 곳 중에 제주도만큼 아름다운 곳이 우리나라에 또 있을까. 지금 제주도는 4월 유채꽃 시기를 지나 수국이 그 뒤를 이어 관광객들을 맞이한다. 가정의 달 5월을 맞아 제주도에 방문할 계획이라면 서귀포에 있는 동양 최대 규모 동백수목원 ‘카멜리아힐’에 들러 아름다운 각종 봄꽃과 함께 수국의 매력에 빠져보자. 진심과 처녀의 꿈이라는 꽃말을 가진 수국은 마치 수많은 꽃이 원모양으로 한데 모인 듯 독특하면서 아름다운 자태를 뽐낸다.그렇게 ‘카멜리아힐’에서 수국과 꽃으로 힐링했다면 중문으로 자리를 옮겨 본격적인 관광이 가능하다. 우리나라에서는 볼 수 없는 희귀 난대림 식물과 3단으로 쏟아져 내려오는 폭포수의 모습이 장관인 ‘천제연폭포’와 오랜 시간 파도와 부딪혀 만들어낸 육각기둥의 웅장한 절경이 매력적인 ‘주상절리’에 들러 특별한 추억을 만들 수 있다. 자연이 선사하는 그림 같은 경관에 깊게 감동했다면 그 다음은 역시 중문 흑돼지 맛집에서 즐기는 식도락이다. 복분자 흑돼지 전문점 ‘돈가득’은 관광객뿐 아니라 현지인들도 많이 찾는 명실상부 중문 맛집으로 품질 좋은 참숯에 고기를 굽고 두툼하고 육질 좋은 제주산 흑돼지에 굽기 직전 복분자를 뿌려주어 잡내를 없애 만족도가 높은 곳이다. 제주도 서귀포 흑돼지 맛집으로는 손꼽힐 정도의 인기인데, MBC에브리원 ‘맛있을 지도’ 방송에 소개되어 MC 개그맨 김경식과 일본여자연예인 사유리의 극찬을 받기도 했다. 흑돼지 근고기 외에 점심특선메뉴로 전골이 푸짐하게 들어간 ‘흑돼지불고기전골’을 제공하고 다양한 부위의 고기 또한 맛볼 수 있다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 융자금 상환 1년 더 ‘유예’ &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 관광진흥기금 융자금 상환 1년 더 ‘유예’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 제주도, 관광진흥기금 융자금 상환 1년 더 ‘유예’ 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2018.05.04 10:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 작년 매출액 3개년 평균 매출액보다 감소한 업체에 대해 제한적 지원…5월31일까지 접수제주도가 관광시장 위축으로 어려움을 겪고 있는 지역 관광사업체의 경영 안정화를 위해 관광진흥기금 융자금 상환을 1년 유예하기로 했다.제주도는 이 같은 내용을 도청 홈페이지(http://www.jeju.go.kr/news/news/law/jeju.htm)를 통해 공고했다고 4일 밝혔다.한․중 관계가 호전되는 분위기가 조성되고는 있지만 지난해 3월 이후 ‘방한 금지령’이라는 유래 없는 예외적인 상황임을 감안해 올해까지만 융자금 상환을 유예키로 한 것이다.이번 상환 유예는 실질적으로 경영에 어려움을 겪고 있는 관광사업체에 지원될 수 있도록 유예대상을 제한적으로 지원할 계획이다.지원대상은 거치기간 종료 후 원금상환 중이거나 거치기간이 1년미만 남은 업체 중 2017년도 매출액이 3개년(2014~2016년) 평균 매출액보다 감소한 업체로 제한했다. 공고일 기준 거치기간이 1년이상 남은 경우는 지원대상에서 제외한다.신청·접수기간은 5월 8일부터 5월 31일까지 17일간이다. 유예기간은 최대 1년이다.융자자가 융자취급 금융기관에 신청하면 금융기관에서는 적격성 심사를 하게 되고, 심사결과를 5월31일까지 제주도(관광정책과)로 통보하면, 제주도는 6월15일까지 최종 유예 결정을 하게 된다.현학수 관광정책과장은 “이번 융자금 상환유예 지원으로 지역 관광사업체가 어려움을 극복할 수 있는 기회가 되기를 바란다”며 “앞으로도 도민의 실질적 수혜 확대를 위한 기금운용 정책을 지속적으로 추진해 나갈 방침”이라고 말했다.제주도는 지난해 ‘사드’ 피해지원을 위해 230개소 307억원의 특별융자와 291건 2280억원에 대한 융자금 상환을 유예한 바 있다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>어업·관광·레저…제주도, 다기능 어항개발 추진 오피니언 사설 데스크칼럼 전문가칼럼 기자수첩 인터뷰 시사만화 폴리로그 여의도는 정책분석 이슈&amp;논평 # E.FACT 경제명암 재계이슈 인사이드 위기경영 富동산 부동산뉴스 부촌명사 부자부동산 상권TMI 맛있는 부동산 보.증.금 금융동향 금융이슈 제테크 SKY기획 이슈 포커스 진단ㆍ분석 스팟이슈 나라밖 글로벌클라스 포토뉴스 부의지도 우리동네명사들 인물별 보기 그래프 보기 서울 9.9º 미세먼지   보통 수원 10.5º 미세먼지   좋음 춘천 9.5º 미세먼지   좋음 강릉 13.5º 미세먼지   좋음 청주 10.9º 미세먼지   보통 대전 10.1º 미세먼지   좋음 전주 13.1º 미세먼지   좋음 광주 13.5º 미세먼지   좋음 목포 14.4º 미세먼지   보통 여수 13.6º 미세먼지   보통 안동 10.8º 미세먼지   좋음 대구 13.8º 미세먼지   좋음 울산 13.5º 미세먼지   좋음 부산 16.3º 미세먼지   좋음 제주 16.5º 미세먼지   좋음 Update : 2022-10-11 12:49 최신기사 오피니언 폴리로그 # E.FACT 富동산 보.증.금 SKY기획 나라밖 전국 포토뉴스 부의 지도 신문PDF 로그인 오피니언 사설 데스크칼럼 전문가칼럼 기자수첩 인터뷰 시사만화 폴리로그 여의도는 정책분석 이슈&amp;논평 # E.FACT 경제명암 재계이슈 인사이드 위기경영 富동산 부동산뉴스 부촌명사 부자부동산 상권TMI 맛있는 부동산 보.증.금 금융동향 금융이슈 제테크 SKY기획 이슈 포커스 진단ㆍ분석 스팟이슈 나라밖 글로벌클라스 포토뉴스 정치 경제 사회 문화 연예 일반 부의지도 우리동네명사들 인물별 보기 그래프 보기 정치 국회ㆍ정당 행정ㆍ자치 국방ㆍ군사 경영 경영ㆍCEO 재벌ㆍ대기업 중견ㆍ중기ㆍ벤쳐 금융 금융일반 은행 증권 보험 제2금융 부동산 일반 건물 토지 아파트 경제정책 정부ㆍ정책 시정ㆍ구정 경제사건 소비자 거시경제 IT과학 ITㆍ인터넷 연구ㆍ개발 과학 게임 국제 국제일반 국제경제 국제사회 국제정치 글로벌클라스 사회 사건ㆍ사고 사회ㆍ노동 복지ㆍ여성 교육ㆍ취업 주거ㆍ라이프 산업 전기ㆍ전자ㆍ통신 건설ㆍ자동차 조선ㆍ해운 유통ㆍ물류ㆍ광고 제철ㆍ기계ㆍ에너지 화학ㆍ섬유 제약ㆍ바이오ㆍ의료 식품ㆍ요식ㆍ유흥 여행ㆍ항공 광고ㆍ미디어 문화 문화산업 반려동물 미디어 책ㆍ출판 전시ㆍ공연 스포츠 스포츠산업 스포츠일반 야구 축구 연예 연예산업 연예일반 영화 TVㆍ방송 전국 보도자료 신문지면PDF 구독신청 기사제보 주소 : 서울시 강남구 도산대로 541(청담동) 세신빌딩 9층 | 전화 : 02-522-6595~6 | 팩스 : 02-522-6597 인터넷신문 등록번호 : 서울시 아01703, 등록일 : 2011년 7월 15일, 대표이사·발행인·편집인: 조정진 copyrightⓒ2011, All rights reserved. Contact : skyedaily@skyedaily.com | 청소년보호책임자 : 박선옥 회사소개 | 조직도 | 회사연혁 | 윤리강령 | 광고안내 | 기사제보 | 독자의견 | 법적고지 | 개인정보취급방침 | 청소년보호정책 | 고충처리 이 시간 주요기사 SNS에서 증식되는 혐오… 소통의 창(窓) 아닌 찌르는 창(槍)이었다 나보다 ‘나’를 더 잘 아는 SNS 광고… 개인정보 훔쳐보고 있었다 아직도 활개치는 ‘n번방’… SNS 타고 창궐하는 ‘디지털 성범죄’ 버팀목 전세자금대출 연체 548억원… 매년 증가 추세 美, 대(對)중국 컴퓨터 반도체 칩 판매 수출 제한 강화 국공립 어린이집 확충 예산 20% 삭감… 관련 예산도 줄줄이 깎여 이준석, 당원권 정지 추가 징계에 ‘이순신 출정사’ 꺼내들며 “탈당 말라” 푸틴, 크름대교 폭발 배후로 우크라이나 지목 與,‘이준석 리스크’해소되면서 당권 경쟁 본격화 조짐 노동당 77주년 창건일 전날 ‘심야 미사일’ 도발 北 속내는 러, 우크라 수도 키이우 미사일 공격… 사상자 다수 발생 메타, 페북 개인정보 유출 위험 400개 악성 앱 삭제 삼성, 키이우 공습 소식에 “외벽·유리창만 파손… 인명 피해 없어” 국토부 산하 공공기관 산재 전문 인력 아예 없는 곳 ‘다수’ 부산시, 아프리카 튀니지 품었다 뉴스 &gt; 시정·구정 어업·관광·레저…제주도, 다기능 어항개발 추진 73억 들여 어선 감척·기후 변화·FTA 대응…주민 소득 향상 기대 남승진 기자 기자페이지 + 입력 2018-05-06 15:09:16 ▲ 제주도 지방어항 개발사업 위치도 [사진=제주도] 제주도가 어업·관광·레저 동시 활성화를 위해 어항 개발사업에 착수한다. 제주도는 어선 감척·기후 변화·FTA 등 수산업 여건 변화에 대응키 위해 올해 총 73억2500만원을 들여 도내 11개 지방에 개발사업을 이달부터 본격 추진한다고 6일 밝혔다. 먼저 도내 고산항·신창항·하귀1리항·조천항·세화항·우도항·가파항·사계항·태흥2리항·표선항·신천항 등 11개 어항에 대해 방파제·물양장·항내 준설 등 어항 기본시설과 배후부지 리모델링 및 편의시설 확보 등 어항 기능보강사업에 나선다. 특히 신창항·고산항·세화항·우도항·태흥2리항 등의 경우 항내 퇴적물과 암반을 제거하는 준설사업과 편의시설 확충 사업 등으로 어선 안전 수용과 효율적인 어로 활동·관광객 수송·낚시관광 등의 활성화가 기대된다. 또한 기후변화에 따른 해수면 상승과 태풍으로 어항거점시설에 대한 침수피해가 예상되는 하귀1리항·사계항·가파항·조천항·표선항·신천항 등 6개 어항에 대해 방파제 시설 보수·보강을 실시함으로써 월파로 인한 어선 정박과 어항 피해를 예방키로 했다. 김창선 제주도 해양수산국장은 “지방어항을 관광지역과 연계해 개발하고 어촌관광 화성화 등 경제적 파급 효과가 크다고 예상되는 지역을 어업·관광·레저 활동과 연계해 개발함으로써 지역경제 활성화와 실질적인 주민 소득 향상에 기여할 수 있도록 하겠다”고 밝혔다. [남승진 기자 / 행동이 빠른 신문 ⓒ스카이데일리] 남승진 기자 nnssjj123@skyedaily.com 기자페이지 + 시정·구정 많이 본 기사 박형준 부산시장, 취임 100일 시정 기틀 마련민선8기 출범 100일을 맞은 부산시가 ‘다시 태어나도 살고 싶은 행복도시 부산’실현과 부산의 최대 현안인 ‘2030부산세계박람...											2022-10-10  11:27:49 프랑스 파리, 서초 매력에 푹 빠지다서울 서초구는 한글날인 9일부터 15일까지 우호도시 프랑스 파리15구 대학생들을 서초에 초대해 K-컬처를 알리고, 한국과 서초구...											2022-10-10  10:53:54 이 기사에 대해 어떻게 생각하시나요? 추천해요 0 좋아요 0 감동이에요 0 화나요 0 슬퍼요 0 등록 많이 읽은 기사 [속보] 北, 노동당 창건일 전날 도발… 새벽 1시48분부터 동해로 탄도미사일 2발 발사 이동환 고양특례시장 "경제자유구역 반드시 지정하겠다" 트와이스 동갑내기 모모-정연, 광진구 신축 오피스텔 나란히 분양 맥주는 밤에 마셔야 제맛 당진시, 공공건축 혁신행정부문 장관상 수상 영주시, 농·특산품 말레이시아·중국 시장 진출 탄력 신안, 섬마을 초등학교에서 '나만의 노벨상' 수여식 文재인은 박근혜 대통령에게 사과하고 감옥에 가야 한다 불법사금융 피해 3년간 2배 급증… 최고이자율 제한 개정안 2년째 감감무소식 AI 두피진단 무인단말기 해외시장 진출 성공 오늘자 스카이데일리 구독신청 코프로모션 오늘의 운세 연재소설 ‘초대받은 여자’ 기사제보 우리동네 부자명사 풋풋한 한지민, 사후 세계 ‘욘더’로 초대합니다 댓글이 多 올여름은 봉화에서 은어 잡아 보세요 독자댓글 게등위따위가 아직도 공공기관이라니 참 개탄스럽습니... 업계 이해도 없는 인사로만 구성된 전문성 없는 기관이... 좋은 기사 감사합니다! 스카이데일리 SNS 친구추가해주세요 구독해주세요 팔로우하세요 주요 섹션 기사 폴리로그 與,‘이준석 리스크’해소되면서 당권 경쟁 본격화 조짐 # E.FACT 소매유통업 경기전망 코로나 이후 최저… ‘소비 냉각’ 오나 富동산 버팀목 전세자금대출 연체 548억원… 매년 증가 추세 보.증.금 네이버·카카오 주가 ‘반 토막’… 올해 시총 63조원 사라져 나라밖 러시아 가즈프롬, 서유럽 수출 중단 불구 견조한 성장세 전망 전국 배움과 나눔 있는 춘천 평생학습축제 주목 오피니언 사설 데스크칼럼 전문가칼럼 기자수첩 인터뷰 시사만화 폴리로그 여의도는 정책분석 이슈&amp;논평 # E.FACT 경제명암 재계이슈 인사이드 위기경영 富동산 부동산뉴스 부촌명사 부자부동산 상권TMI 맛있는 부동산 보.증.금 금융동향 금융이슈 제테크 SKY기획 이슈 포커스 진단ㆍ분석 스팟이슈 나라밖 글로벌클라스 포토뉴스 정치 경제 사회 문화 연예 일반 부의지도 우리동네명사들 인물별 보기 그래프 보기 정치 국회ㆍ정당 행정ㆍ자치 국방ㆍ군사 경영 경영ㆍCEO 재벌ㆍ대기업 중견ㆍ중기ㆍ벤쳐 금융 금융일반 은행 증권 보험 제2금융 부동산 일반 건물 토지 아파트 경제정책 정부ㆍ정책 시정ㆍ구정 경제사건 소비자 거시경제 IT과학 ITㆍ인터넷 연구ㆍ개발 과학 게임 국제 국제일반 국제경제 국제사회 국제정치 글로벌클라스 사회 사건ㆍ사고 사회ㆍ노동 복지ㆍ여성 교육ㆍ취업 주거ㆍ라이프 산업 전기ㆍ전자ㆍ통신 건설ㆍ자동차 조선ㆍ해운 유통ㆍ물류ㆍ광고 제철ㆍ기계ㆍ에너지 화학ㆍ섬유 제약ㆍ바이오ㆍ의료 식품ㆍ요식ㆍ유흥 여행ㆍ항공 광고ㆍ미디어 문화 문화산업 반려동물 미디어 책ㆍ출판 전시ㆍ공연 스포츠 스포츠산업 스포츠일반 야구 축구 연예 연예산업 연예일반 영화 TVㆍ방송 전국 보도자료 신문지면PDF 구독신청 기사제보 주소 : 서울시 강남구 도산대로 541(청담동) 세신빌딩 9층 | 전화 : 02-522-6595~6 | 팩스 : 02-522-6597 인터넷신문 등록번호 : 서울시 아01703, 등록일 : 2011년 7월 15일, 대표이사·발행인·편집인: 조정진 copyrightⓒ2011, All rights reserved. Contact : skyedaily@skyedaily.com | 청소년보호책임자 : 박선옥 회사소개 | 조직도 | 회사연혁 | 윤리강령 | 광고안내 | 기사제보 | 독자의견 | 법적고지 | 개인정보취급방침 | 청소년보호정책 | 고충처리 이 시간 주요기사 SNS에서 증식되는 혐오… 소통의 창(窓) 아닌 찌르는 창(槍)이었다 나보다 ‘나’를 더 잘 아는 SNS 광고… 개인정보 훔쳐보고 있었다 아직도 활개치는 ‘n번방’… SNS 타고 창궐하는 ‘디지털 성범죄’ 버팀목 전세자금대출 연체 548억원… 매년 증가 추세 美, 대(對)중국 컴퓨터 반도체 칩 판매 수출 제한 강화 국공립 어린이집 확충 예산 20% 삭감… 관련 예산도 줄줄이 깎여 이준석, 당원권 정지 추가 징계에 ‘이순신 출정사’ 꺼내들며 “탈당 말라” 푸틴, 크름대교 폭발 배후로 우크라이나 지목 與,‘이준석 리스크’해소되면서 당권 경쟁 본격화 조짐 노동당 77주년 창건일 전날 ‘심야 미사일’ 도발 北 속내는 러, 우크라 수도 키이우 미사일 공격… 사상자 다수 발생 메타, 페북 개인정보 유출 위험 400개 악성 앱 삭제 삼성, 키이우 공습 소식에 “외벽·유리창만 파손… 인명 피해 없어” 국토부 산하 공공기관 산재 전문 인력 아예 없는 곳 ‘다수’ 부산시, 아프리카 튀니지 품었다</t>
+  </si>
+  <si>
+    <t>제주도, 제주관광진흥기금 융자금 상환 1년 유예 &lt; 실시간뉴스 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 11:33 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 제주관광진흥기금 융자금 상환 1년 유예 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 실시간뉴스 제주도, 제주관광진흥기금 융자금 상환 1년 유예 기자명 김종광 기자 입력 2018.05.04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 8일부터 오는 31일까지 접수…유예기간 최대 1년 제주특별자치도는 관광시장 위축으로 어려움을 겪고 있는 지역 관광사업체의 경영 안정화를 위해 융자금 상환을 1년간 유예한다고 4일 밝혔다.지원대상은 거치기간 종료 후 원금상환 중이거나 거치기간이 1년 미만 남은 업체 가운데 지난해 매출액이 3개년(2014~2016년) 평균 매출액보다 감소한 업체이다. 단 공고일 기준 거치기간이 1년 이상 남은 경우는 지원대상에서 제외된다.신청은 8일부터 오는 31일까지 17일간이며, 유예기간은 최대 1년이다. 융자가 융자취급 금융기관에 신청하면 금융기관에서는 해당 신청 건에 대한 적격성 심사를 거쳐 다음 달 15일까지 최종 유예 결정을 하게 된다.제주도 관계자는 “한·중 관계 호전 분위기로 관광 재개의 긍정적 요인은 있으나 실질적인 시기는 불확실하며, 지난해 3월 이후 전면적 관광 봉쇄라는 유래 없는 예외적인 상황임을 감안해 올해까지만 융자금 상황을 유예키로 했다”고 설명했다. 김종광 기자 mystic89@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 전기료 인상에 광어 업계 속 타는데 제주어류양식수협은 ‘수수방관’ 포토뉴스 제주 한림 목조 펜션서 불…인명피해 없어 JDC, 투자희망 기업 대상 파트너스데이 개최 도내 주유소 가격 투명성·안정에 ‘안간힘’ 제주도내 고용상황 회복세 기조 유지 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 4 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>예산군노인종합복지관, 제주도 ‘효’ 관광나들이 &lt; 보령·서산·당진·서천·예산·청양·태안·홍성 &lt; 충남 &lt; 기사본문 - 동양일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 기사검색 검색 2022-10-11 12:44 (화) 기사제보 모바일웹 구독신청 로그인 뉴스 정치 사회 경제 교육 문화 과학 의학 연예 스포츠 포토 지역 충북 충남 세종 오피니언 지난 오피니언 기획·특집 지난 특집 이사람 이런일 인사/동정 생활정보 인물 독자참여 알립니다 오늘의 운세 오늘의 역사 아침을 여는 시 자료실 전체 메뉴 본문영역 이전 기사보기 다음 기사보기 예산군노인종합복지관, 제주도 ‘효’ 관광나들이 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 충남 보령·서산·당진·서천·예산·청양·태안·홍성 예산군노인종합복지관, 제주도 ‘효’ 관광나들이 기자명 천성남 입력 2018.05.07 18:40 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 재가 효도 관광 나들이 (동양일보 천성남 기자) 예산군노인종합복지관(관장 육통스님)이 어버이날을 맞아 재가어르신 제주도 효도관광 나들이를 실시했다. 재가 어르신 10명을 대상으로 2박3일간 진행한 효 관광은 어르신들의 안전을 위해 맞춤형 종사자 케어로 진행했다. 3명의 어르신은 생애처음 받을 딛는 제주도 선녀와나무꾼(옛 추억의 테마파크), 을 방문, 애월한담해안로, 여미지 식물원, 주상절리 등 아름다운 추억여행과 에코랜드 기차여행에서 족욕마사지 체험 등 추억을 쌓는 여행을 진행했다. 육통스님은 “경제적, 환경적 어려움으로 나들이가 어려운 분들을 위한 행사로 어르신들의 욕구 해소와 삶의 활력을 충전할 수 있는 좋은 기회가 되었다”며 “앞으로 재가 어르신의 행복과 복지 증진을 위해 더욱 노력하겠다”고 밝혔다. 예산 천성남 기자 동양일보TV 천성남 go2south@dynews.co.kr 다른기사 보기 저작권자 © 동양일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 태안 자연산 대하·꽃게 대풍년...지난해 절반 가격 나들이 나섰다 참변 당한 일가족 나들이 나섰다 참변 당한 일가족…1명 숨져 푸틴, 우크라 점령지 합병조약 서명…"모든 수단으로 지킬 것" ‘시멘트 가격 인상’, 레미콘 업계 조업중단(셧다운) 초읽기... 건설 업계도 비상 전국택시업계, “국민 안전 위협하는 택시 부제해제 철회하라” 교비횡령 충청대총장 벌금 200만원 ''자리지켰다" 태안 자연산 대하·꽃게 대풍년...지난해 절반 가격 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 인기기사 태안 자연산 대하·꽃게 대풍년...지난해 절반 가격 나들이 나섰다 참변 당한 일가족 나들이 나섰다 참변 당한 일가족…1명 숨져 푸틴, 우크라 점령지 합병조약 서명…"모든 수단으로 지킬 것" ‘시멘트 가격 인상’, 레미콘 업계 조업중단(셧다운) 초읽기... 건설 업계도 비상 교비횡령 충청대총장 벌금 200만원 ''자리지켰다" 알립니다 한운사 추모제 2022 충청북도 시 낭송 경연대회 17회 충북여성문학상 시상식 날짜 변경 안내 동양일보TV 詩를 통한 인문학 캠페인 2022 '아이러브포엠' 오늘 많이 본 뉴스 주간 많이 본 뉴스 1 충북무용협회, 31회 전국무용제 3관왕 2 [103회 전국체전] 충북선수단, 전국체전 '승승장구' 3 충북소방학교 건립 가시화… 충주·옥천 유치전 4 농협, 농지 취득 외 목적 알면서도 대출 5 충북 3·4분기 경기 악화…제조업·서비스업 소폭 감소 6 풍향계/ 영동학과 농정혁신 7 버스서 여성 강제추행한 충북교육청 6급 공무원 경찰 조사 8 프리즘/ 양성이 평등한 사회 9 김영환 지사, '충북 지원 특별법' 제정 속도 10 조길형 충주시장, 민선 8기 취임 100일 시정방침 확정 1 김동길 연세대 명예교수 별세…향년 94세 2 투기과열·조정지역 해제에도 여전한 아파트 하락세 3 캠코 충북본부, 청렴문화 확산 위해 '플로깅 챌린지' 4 청남대서 ‘키비탄 어린이 대잔치’ 열려 5 충북도, 중부권 수소산업 중심지 도약에 나서다. 6 김영관 한국전력공사 충북본부장 감사패 수상 7 '가처분 기각·추가 징계' 치명타 맞은 이준석…향후 행보는 8 103회 전국체전 3년 만에 함께 뛰어요…충북 종합6위 목표 9 감사원, 영동군 레인보우 힐링관광지 조성 위법․부당사항 사실 밝혀 10 [103회 전국체전] 충북 복싱 기대주 김윤섭 예선전 승리 포토뉴스 [103회 전국체전] 음성군청 장경구, 전국체전 자전거 2관왕 달성 한국농촌지도자옥천군연합회, 사랑의 쌀 670kg 180만원 상당 기탁 계룡에서 6.25참전용사 초청 예우행사 가져 김영환 충북지사,‘증평군민과의 대화’가져 추천 많은 뉴스 정치 사회 경제 시민들에게 찾아가는 논산시의회 충주시의회, 268회 1차 정례회 개회 308회 진천군의회 임시회 개회··· 오·폐수 등 처리시설 현지조사 특별위원회 활동 충북 우수 상품 홍보…우수한 기업유치 활동 당부 임호선 국회의원, 특별교부세 60억원 확보··· 진천 JC스퀘어 도로 조성 등 동양레이더/청주시민, LED가로등 교체 1순위 동양레이더/청주시 규제개혁 시민만족도 조사 환경오염에 시름하는 충북농촌… 농촌형 ESG캠페인 절실 충북소방학교 건립 가시화… 충주·옥천 유치전 강풍 불고 추운 충청권…순간최대풍속 시속 70㎞ 충주시, 공동연구 새싹보리사과즙 베트남 수출 단양군, 4년만에 법정계량기 정기검사 실시 2022 음성 취업박람회, 오는 13일 음성실내체육관서 열려 동양레이더/ ‘중소기업 사랑나눔 콘서트 in 청주’신청․접수 김명규 경제부지사, 휴일에도 지역현안 챙기기 위해 동분서주 하단영역 Copyright © 2022 동양일보. All rights reserved. mail to dynews@dynews.co.kr facebook 하단메뉴 매체소개 고충처리인 기사제보 광고문의 불편신고 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 충청북도 청주시 청원구 충청대로 103 (율량동) 대표전화 : 043)218-7117 팩스 : 043)218-7447,7557 창간 : 1991-12-29 제보전화 : 043)218-7227 청소년보호책임자 : 신선호 명칭 : 동양일보 제호 : 동양일보 등록번호 : 충북 가 00003 회장 : 조철호 발행일 : 1991-12-27 등록일 : 1991-12-27 발행/인쇄인 : 조석준 편집인 겸 편집국장 : 임재업 동양일보 모든 콘텐츠(기사)는 저작권법의 보호를 받는 바, 무단전재, 복사, 배포 등을 금합니다. 위로 전체메뉴 전체기사 정치 전체 중앙정치 지방정치 선거 사회 전체 목격자를찾습니다 공개수배 경제 전체 건설 기업 농수산 산업 수출 부동산 자동차 생활경제 금융 충북팜스테이를 찾아서 주간농사정보 노무상식 세무상식 법률상식 주식 유통 전국동시조합장선거 교육 문화 전체 종합 문학 종교 여성 공연 전시 책 눈으로보는클래식이야기 문화가있는커피이야기 김득진작가와떠나는쿠바여행 우리동네 숨겨진 이야기 구본경의 화폐이야기 친숙한 우리말 오늘의문화예술행사 젊은예인충북의문화를이끈다 책을만나는공간 역사 아침을여는시 오늘의 역사 과학 의학 전체 바이오칼럼 건강 홈닥터 연예 전체 연예 영화 TV/방송 스포츠 전체 종합 야구 축구 배구/농구 골프 올림픽 충북 전체 충주·제천·단양 진천·음성·증평·괴산 보은·옥천·영동 세종 충남 전체 공주·계룡·논산·아산·천안·금산·부여 보령·서산·당진·서천·예산·청양·태안·홍성 오피니언 전체 동양칼럼 풍향계 기자수첩 오늘의주장 동양에세이 프리즘 차한잔 유리창 현장에서 특별기고 기고 의학칼럼 종교칼럼 문화칼럼 잊을수 없는 환자·의료인 데스크칼럼 청주역사문화연구소 릴레이기고 기획·특집 전체 동양포럼 강소농을 꿈꾼다 대표바이오산업 기업탐방 우리 지역 글로벌 기업 이·통장이 소개하는 우리 동네 이야기 우리동네특화사업은? 지역현안… 이것부터 우리는 동호인 신인문학상 재일조선인의삶75년 창사30주년특집 조철호가만난사람 유영선이만난사람 조선통치비화 김홍균이만난사람 젊은 예술가의 지금 여기 사랑의점심나누기 포토 전체 생태사진작가조유성의앵글 사진작가정만희의얼굴 조유성사진기자의생태보기 인물 전체 뉴스의인물 화제의인물 클릭이사람 새인물 인터뷰 포커스 청주人을 찾아서 동양일보올해의인물 동양일보TV 인사/동정 전체 인사 동정 행사 오늘의운세 생활정보 전체 부고 결혼 알림 손님 개업 추천맛집 스팟뉴스 전체 태풍 ’솔릭’ 실시간 제보 지난 오피니언 전체 김홍석원장의동안피부만들기 최천호목사의조국을위해십자가를진신석구 박현무원장의 반려동물과 아름다운동행 손바닥만한이야기 비로소띄우는마음의편지 이준경요리사의즐거운식탁 최태호교수의다문화사회바로보기 새내기교사의교단일기 중국동포가본순회문학제 교단에서 지난 특집 전체 동양초대석 조철호가만난사람 유영선이만난사람 김홍균이만난사람 이가을엔 신년특집 창사특집 창간특집 2013새롭게 가자 숨어있는문화재베일을벗기다 동아시아의공통가치를찾아서 포석 조명희를 찾아서 권희돈 문학테라피스트의 '문학을 통한 치유와 소통' 레저/여행 위기의단체장흔들리는지역민심 여기는 현장 찾아가는 교육현장 함께하는 세상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 홍콩 관광객 유치 제주관광설명회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 홍콩 관광객 유치 제주관광설명회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 홍콩 관광객 유치 제주관광설명회 개최 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.05.02 18:28 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 2일 홍콩 메리어트 호텔에서 현지 80여개 여행업계 대상 제주관광통합설명회를 개최했다고 밝혔다.이번 통합설명회는 제주도와 제주관광공사, 제주특별자치도관광협회, 제주도내 사업체가 합동으로 제주관광마케팅단을 구성해 제주의 신규관광자원을 소개하고, 제주 업계와 현지 여행사 간 B2B 비즈니스 상담회 등 제주관광홍보 세일즈를 전개했다.특히, 홍콩관광청(청장 안토니 라우, Anthony Lau)과 무사증제도를 활용한 상품개발 및 동남아, 러시아, 중동 크루즈관광객 유치 등 시장다변화를 위한 협조체계를 구축키로 했다.설명회는 B2B 비즈니스 상담회를 통해 제주도내 16개 관광사업체와 홍콩 현지 여행업계 간 제주 관광 상품 구성과 유치를 위한 상담이 진행됐으며, 이어진 제주관광설명회에는 100여명의 현지 여행사, 항공사, 언론사들을 대상으로 제주관광상품에 대한 설명을 진행했다.제주도 관계자는 "4.3 70주년 기념 제주 방문의 해를 맞이해 다크투어리즘 관련 이벤트 및 스마트관광 환경 조성 등 다양한 정책을 마련해 홍콩 관광객들의 제주방문 만족도를 높이는데 노력할 것"이라며 "향후 더 많은 홍콩 관광객이 제주의 자연과 문화를 체험하기를 희망한다"고 말했다.이어 "다음 달에는 홍콩 국제관광박람회에 참가하며, 7월에는 홍콩 여행 작가를 활용한 FIT 대상 설명회를 개최하는 등 중화권 관광마케팅 활동을 점차 확대해 나갈 계획" 이라고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
   </si>
 </sst>
 </file>
@@ -425,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,7 +623,235 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
